--- a/dev/tools/legacy_permissions/data/usecases.xlsx
+++ b/dev/tools/legacy_permissions/data/usecases.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="38400" yWindow="0" windowWidth="38400" windowHeight="21600" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="19700" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="usecases" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1292" uniqueCount="541">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1331" uniqueCount="558">
   <si>
     <t>group</t>
   </si>
@@ -1930,6 +1930,143 @@
   </si>
   <si>
     <t>(flash) usecase missing attributes</t>
+  </si>
+  <si>
+    <t>in access control section:
+Enable access control profile combobox</t>
+  </si>
+  <si>
+    <t>in access control section:
+Show 'add profile' button</t>
+  </si>
+  <si>
+    <t>in access control section:
+Enable 'add profile' button</t>
+  </si>
+  <si>
+    <t>@amir - we currently don't have this button, is this on purpose?</t>
+  </si>
+  <si>
+    <t>in flavor section:
+1. Show 'add/replace audio/video &gt; Import File/s' button or 'replace video &gt; Import File' button (depending on role 'FEATURE_MULTI_FLAVOR_INGESTION'
+2. Show 'Import' option in row actions menu</t>
+  </si>
+  <si>
+    <t>in flavor section:
+1. Show 'add/replace audio/video &gt; Link to Remote Storage' button
+2. Show 'Link' option in row actions menu</t>
+  </si>
+  <si>
+    <t>in flavor section:
+1. Show 'add/replace audio/video &gt; Upload File/s' button or 'add/replace audio/video &gt; Upload File' button (depending on role 'FEATURE_MULTI_FLAVOR_INGESTION'
+2. Show 'Upload' option in row actions menu</t>
+  </si>
+  <si>
+    <t>in flavor section:
+1. Show 'add/replace audio/video &gt; Match from Drop Folder' button
+2. Show 'Drop Folder' option in row actions menu</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">in flavor section:
+Show 'add/replace audio/video' group of buttons if entry status </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>equals</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 'No Content'</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">in flavor section:
+Show 'add/replace audio/video' group of buttons if entry status </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>doesn't</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>equal</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 'No Content'</t>
+    </r>
+  </si>
+  <si>
+    <t>in flavor section:
+Show flavors table 'actions' column</t>
+  </si>
+  <si>
+    <t>in flavor section:
+Show flavors table 'tags' column</t>
+  </si>
+  <si>
+    <t>in flavor section:
+1. Allow import of multiple files (see role CONTENT_INGEST_BULK_UPLOAD)
+2. Allow upload of multiple files (see role CONTENT_INGEST_UPLOAD)</t>
+  </si>
+  <si>
+    <t>@Amir should be added to the PRD of flavors section replace video feature</t>
+  </si>
+  <si>
+    <t>@Amir The first requirement should be added to the PRD of flavors section replace video feature</t>
+  </si>
+  <si>
+    <t>in flavor section:
+Show replacement video info panel and actions (the actions are dependent on role FEATURE_ENTRY_REPLACEMENT )</t>
+  </si>
+  <si>
+    <t>in flavor section:
+Show replacement video actions in info panel (depends on role CONTENT_INGEST_REPLACE)</t>
   </si>
 </sst>
 </file>
@@ -2014,7 +2151,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -2030,6 +2167,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -2315,8 +2455,8 @@
   <dimension ref="A1:K253"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A244" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H3" sqref="H3"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2397,111 +2537,105 @@
         <v>286</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>287</v>
+        <v>293</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>288</v>
+        <v>294</v>
       </c>
       <c r="D3" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
       <c r="I3" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="J3" s="3" t="s">
-        <v>58</v>
+        <v>295</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="32" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>286</v>
+        <v>277</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>287</v>
+        <v>278</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>288</v>
+        <v>279</v>
       </c>
       <c r="D4" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
       <c r="I4" s="3" t="s">
-        <v>59</v>
+        <v>280</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>60</v>
+        <v>281</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="32" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>286</v>
+        <v>277</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>293</v>
+        <v>278</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>294</v>
+        <v>279</v>
       </c>
       <c r="D5" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
       <c r="I5" s="3" t="s">
-        <v>295</v>
-      </c>
-      <c r="J5" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" ht="32" x14ac:dyDescent="0.2">
+        <v>282</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>286</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>290</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>291</v>
+        <v>404</v>
       </c>
       <c r="D6" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
       <c r="I6" s="3" t="s">
-        <v>292</v>
+        <v>283</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>75</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="32" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>273</v>
+        <v>278</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>274</v>
+        <v>279</v>
       </c>
       <c r="D7" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
       <c r="I7" s="3" t="s">
-        <v>275</v>
+        <v>283</v>
       </c>
       <c r="J7" s="3" t="s">
         <v>58</v>
@@ -2509,82 +2643,82 @@
     </row>
     <row r="8" spans="1:11" ht="32" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>273</v>
+        <v>278</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>274</v>
+        <v>279</v>
       </c>
       <c r="D8" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
       <c r="I8" s="3" t="s">
-        <v>276</v>
+        <v>284</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>18</v>
+        <v>58</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="32" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>332</v>
+        <v>277</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>350</v>
+        <v>278</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>351</v>
+        <v>279</v>
       </c>
       <c r="D9" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
       <c r="I9" s="3" t="s">
-        <v>352</v>
-      </c>
-      <c r="J9" s="4" t="s">
-        <v>10</v>
+        <v>285</v>
+      </c>
+      <c r="J9" s="3" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="32" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>332</v>
+        <v>314</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>350</v>
+        <v>315</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>351</v>
+        <v>316</v>
       </c>
       <c r="D10" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
       <c r="I10" s="3" t="s">
-        <v>353</v>
-      </c>
-      <c r="J10" s="3" t="s">
-        <v>236</v>
+        <v>317</v>
+      </c>
+      <c r="J10" s="4" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="32" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>332</v>
+        <v>314</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>361</v>
+        <v>329</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>362</v>
+        <v>330</v>
       </c>
       <c r="D11" s="1">
         <v>1</v>
@@ -2593,21 +2727,21 @@
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
       <c r="I11" s="3" t="s">
-        <v>353</v>
-      </c>
-      <c r="J11" s="3" t="s">
-        <v>252</v>
+        <v>331</v>
+      </c>
+      <c r="J11" s="4" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="32" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>332</v>
+        <v>272</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>354</v>
+        <v>273</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>355</v>
+        <v>274</v>
       </c>
       <c r="D12" s="1">
         <v>1</v>
@@ -2616,7 +2750,7 @@
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
       <c r="I12" s="3" t="s">
-        <v>356</v>
+        <v>275</v>
       </c>
       <c r="J12" s="3" t="s">
         <v>58</v>
@@ -2624,13 +2758,13 @@
     </row>
     <row r="13" spans="1:11" ht="32" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>332</v>
+        <v>272</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>354</v>
+        <v>273</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>355</v>
+        <v>274</v>
       </c>
       <c r="D13" s="1">
         <v>2</v>
@@ -2639,21 +2773,15 @@
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
       <c r="I13" s="3" t="s">
-        <v>357</v>
+        <v>276</v>
       </c>
       <c r="J13" s="3" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" ht="32" x14ac:dyDescent="0.2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>332</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>354</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>355</v>
+        <v>425</v>
       </c>
       <c r="D14" s="1">
         <v>3</v>
@@ -2662,44 +2790,44 @@
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
       <c r="I14" s="3" t="s">
-        <v>358</v>
+        <v>427</v>
       </c>
       <c r="J14" s="3" t="s">
-        <v>18</v>
+        <v>428</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="32" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>332</v>
+        <v>296</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>354</v>
+        <v>297</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>355</v>
+        <v>298</v>
       </c>
       <c r="D15" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
       <c r="I15" s="3" t="s">
-        <v>359</v>
-      </c>
-      <c r="J15" s="3" t="s">
-        <v>360</v>
+        <v>299</v>
+      </c>
+      <c r="J15" s="4" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="32" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>332</v>
+        <v>296</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>333</v>
+        <v>310</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>334</v>
+        <v>311</v>
       </c>
       <c r="D16" s="1">
         <v>1</v>
@@ -2708,7 +2836,7 @@
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
       <c r="I16" s="3" t="s">
-        <v>335</v>
+        <v>312</v>
       </c>
       <c r="J16" s="4" t="s">
         <v>10</v>
@@ -2716,303 +2844,300 @@
     </row>
     <row r="17" spans="1:10" ht="32" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>332</v>
+        <v>296</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>363</v>
+        <v>297</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>364</v>
+        <v>298</v>
       </c>
       <c r="D17" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
       <c r="I17" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="J17" s="3" t="s">
-        <v>365</v>
+        <v>300</v>
+      </c>
+      <c r="J17" s="4" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="32" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>332</v>
+        <v>296</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>348</v>
+        <v>310</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>349</v>
+        <v>311</v>
       </c>
       <c r="D18" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
       <c r="I18" s="3" t="s">
-        <v>338</v>
-      </c>
-      <c r="J18" s="3" t="s">
-        <v>252</v>
+        <v>313</v>
+      </c>
+      <c r="J18" s="4" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="19" spans="1:10" ht="32" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>332</v>
+        <v>296</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>336</v>
+        <v>301</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>337</v>
+        <v>302</v>
       </c>
       <c r="D19" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
       <c r="I19" s="3" t="s">
-        <v>338</v>
+        <v>305</v>
       </c>
       <c r="J19" s="3" t="s">
-        <v>339</v>
+        <v>18</v>
       </c>
     </row>
     <row r="20" spans="1:10" ht="32" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>332</v>
+        <v>296</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>336</v>
+        <v>301</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>337</v>
+        <v>302</v>
       </c>
       <c r="D20" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
       <c r="I20" s="3" t="s">
-        <v>338</v>
+        <v>303</v>
       </c>
       <c r="J20" s="3" t="s">
-        <v>340</v>
+        <v>304</v>
       </c>
     </row>
     <row r="21" spans="1:10" ht="32" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>332</v>
+        <v>286</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>336</v>
+        <v>290</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>337</v>
+        <v>291</v>
       </c>
       <c r="D21" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
       <c r="H21" s="1"/>
       <c r="I21" s="3" t="s">
-        <v>341</v>
+        <v>292</v>
       </c>
       <c r="J21" s="3" t="s">
-        <v>58</v>
+        <v>75</v>
       </c>
     </row>
     <row r="22" spans="1:10" ht="32" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>332</v>
+        <v>314</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>336</v>
+        <v>315</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>337</v>
+        <v>316</v>
       </c>
       <c r="D22" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
       <c r="H22" s="1"/>
       <c r="I22" s="3" t="s">
-        <v>342</v>
-      </c>
-      <c r="J22" s="3" t="s">
-        <v>58</v>
+        <v>318</v>
+      </c>
+      <c r="J22" s="4" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="23" spans="1:10" ht="32" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>332</v>
+        <v>314</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>336</v>
+        <v>315</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>337</v>
+        <v>316</v>
       </c>
       <c r="D23" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F23" s="1"/>
       <c r="G23" s="1"/>
       <c r="H23" s="1"/>
       <c r="I23" s="3" t="s">
-        <v>343</v>
+        <v>320</v>
       </c>
       <c r="J23" s="3" t="s">
-        <v>58</v>
+        <v>321</v>
       </c>
     </row>
     <row r="24" spans="1:10" ht="32" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>332</v>
+        <v>314</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>336</v>
+        <v>315</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>337</v>
+        <v>316</v>
       </c>
       <c r="D24" s="1">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F24" s="1"/>
       <c r="G24" s="1"/>
       <c r="H24" s="1"/>
       <c r="I24" s="3" t="s">
-        <v>344</v>
-      </c>
-      <c r="J24" s="3" t="s">
-        <v>58</v>
+        <v>319</v>
+      </c>
+      <c r="J24" s="4" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="25" spans="1:10" ht="32" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>332</v>
+        <v>314</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>336</v>
+        <v>323</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>337</v>
+        <v>324</v>
       </c>
       <c r="D25" s="1">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="F25" s="1"/>
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
       <c r="I25" s="3" t="s">
-        <v>345</v>
-      </c>
-      <c r="J25" s="3" t="s">
-        <v>58</v>
+        <v>325</v>
+      </c>
+      <c r="J25" s="4" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="26" spans="1:10" ht="32" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
-        <v>332</v>
+        <v>314</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>336</v>
+        <v>323</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>337</v>
+        <v>324</v>
       </c>
       <c r="D26" s="1">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="F26" s="1"/>
       <c r="G26" s="1"/>
       <c r="H26" s="1"/>
       <c r="I26" s="3" t="s">
-        <v>346</v>
+        <v>327</v>
       </c>
       <c r="J26" s="3" t="s">
-        <v>18</v>
+        <v>321</v>
       </c>
     </row>
     <row r="27" spans="1:10" ht="32" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
-        <v>332</v>
+        <v>314</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>336</v>
+        <v>315</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>337</v>
+        <v>316</v>
       </c>
       <c r="D27" s="1">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="F27" s="1"/>
       <c r="G27" s="1"/>
       <c r="H27" s="1"/>
       <c r="I27" s="3" t="s">
-        <v>347</v>
+        <v>322</v>
       </c>
       <c r="J27" s="4" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:10" ht="32" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
-        <v>259</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>260</v>
+        <v>314</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>324</v>
       </c>
       <c r="D28" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F28" s="1"/>
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
       <c r="I28" s="3" t="s">
-        <v>261</v>
-      </c>
-      <c r="J28" s="3" t="s">
-        <v>75</v>
+        <v>326</v>
+      </c>
+      <c r="J28" s="4" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
-        <v>259</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>260</v>
+        <v>436</v>
       </c>
       <c r="D29" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F29" s="1"/>
       <c r="G29" s="1"/>
       <c r="H29" s="1"/>
       <c r="I29" s="3" t="s">
-        <v>262</v>
+        <v>419</v>
       </c>
       <c r="J29" s="3" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" ht="32" x14ac:dyDescent="0.2">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
-        <v>263</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>264</v>
+        <v>418</v>
       </c>
       <c r="D30" s="1">
         <v>1</v>
@@ -3021,38 +3146,38 @@
       <c r="G30" s="1"/>
       <c r="H30" s="1"/>
       <c r="I30" s="3" t="s">
-        <v>265</v>
-      </c>
-      <c r="J30" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" ht="32" x14ac:dyDescent="0.2">
+        <v>419</v>
+      </c>
+      <c r="J30" s="3" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
-        <v>263</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>264</v>
+        <v>421</v>
       </c>
       <c r="D31" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F31" s="1"/>
       <c r="G31" s="1"/>
       <c r="H31" s="1"/>
       <c r="I31" s="3" t="s">
-        <v>266</v>
-      </c>
-      <c r="J31" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
+        <v>419</v>
+      </c>
+      <c r="J31" s="3" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" ht="32" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
-        <v>263</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>264</v>
+        <v>4</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>6</v>
       </c>
       <c r="D32" s="1">
         <v>3</v>
@@ -3061,61 +3186,67 @@
       <c r="G32" s="1"/>
       <c r="H32" s="1"/>
       <c r="I32" s="3" t="s">
-        <v>267</v>
-      </c>
-      <c r="J32" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
+        <v>11</v>
+      </c>
+      <c r="J32" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" ht="32" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
-        <v>263</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>264</v>
+        <v>4</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>40</v>
       </c>
       <c r="D33" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F33" s="1"/>
       <c r="G33" s="1"/>
       <c r="H33" s="1"/>
       <c r="I33" s="3" t="s">
-        <v>268</v>
-      </c>
-      <c r="J33" s="3" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
+        <v>41</v>
+      </c>
+      <c r="J33" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" ht="32" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
-        <v>263</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>264</v>
+        <v>4</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="D34" s="1">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F34" s="1"/>
       <c r="G34" s="1"/>
       <c r="H34" s="1"/>
       <c r="I34" s="3" t="s">
-        <v>270</v>
-      </c>
-      <c r="J34" s="3" t="s">
-        <v>271</v>
+        <v>44</v>
+      </c>
+      <c r="J34" s="4" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="35" spans="1:10" ht="32" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
-        <v>163</v>
+        <v>4</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>168</v>
+        <v>30</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>169</v>
+        <v>31</v>
       </c>
       <c r="D35" s="1">
         <v>1</v>
@@ -3124,33 +3255,33 @@
       <c r="G35" s="1"/>
       <c r="H35" s="1"/>
       <c r="I35" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="J35" s="3" t="s">
-        <v>170</v>
+        <v>32</v>
+      </c>
+      <c r="J35" s="4" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="36" spans="1:10" ht="32" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
-        <v>163</v>
+        <v>4</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>164</v>
+        <v>5</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>165</v>
+        <v>6</v>
       </c>
       <c r="D36" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F36" s="1"/>
       <c r="G36" s="1"/>
       <c r="H36" s="1"/>
       <c r="I36" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="J36" s="3" t="s">
-        <v>167</v>
+        <v>9</v>
+      </c>
+      <c r="J36" s="4" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="37" spans="1:10" ht="32" x14ac:dyDescent="0.2">
@@ -3158,10 +3289,10 @@
         <v>4</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>15</v>
+        <v>37</v>
       </c>
       <c r="D37" s="1">
         <v>1</v>
@@ -3170,10 +3301,10 @@
       <c r="G37" s="1"/>
       <c r="H37" s="1"/>
       <c r="I37" s="3" t="s">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="J37" s="4" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="38" spans="1:10" ht="32" x14ac:dyDescent="0.2">
@@ -3181,45 +3312,45 @@
         <v>4</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>14</v>
+        <v>33</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="D38" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F38" s="1"/>
       <c r="G38" s="1"/>
       <c r="H38" s="1"/>
       <c r="I38" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="J38" s="3" t="s">
-        <v>18</v>
+        <v>35</v>
+      </c>
+      <c r="J38" s="4" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="39" spans="1:10" ht="32" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
-        <v>4</v>
+        <v>332</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>14</v>
+        <v>363</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>15</v>
+        <v>364</v>
       </c>
       <c r="D39" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F39" s="1"/>
       <c r="G39" s="1"/>
       <c r="H39" s="1"/>
       <c r="I39" s="3" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="J39" s="3" t="s">
-        <v>19</v>
+        <v>365</v>
       </c>
     </row>
     <row r="40" spans="1:10" ht="32" x14ac:dyDescent="0.2">
@@ -3247,59 +3378,53 @@
     </row>
     <row r="41" spans="1:10" ht="32" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="D41" s="1">
         <v>4</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C41" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="D41" s="1">
-        <v>1</v>
       </c>
       <c r="F41" s="1"/>
       <c r="G41" s="1"/>
       <c r="H41" s="1"/>
       <c r="I41" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="J41" s="4" t="s">
-        <v>10</v>
+        <v>20</v>
+      </c>
+      <c r="J41" s="3" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="42" spans="1:10" ht="32" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
-        <v>4</v>
+        <v>45</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>39</v>
+        <v>123</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>40</v>
+        <v>124</v>
       </c>
       <c r="D42" s="1">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F42" s="1"/>
       <c r="G42" s="1"/>
       <c r="H42" s="1"/>
       <c r="I42" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="J42" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="43" spans="1:10" ht="32" x14ac:dyDescent="0.2">
+        <v>20</v>
+      </c>
+      <c r="J42" s="3" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B43" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C43" s="2" t="s">
-        <v>37</v>
+        <v>411</v>
       </c>
       <c r="D43" s="1">
         <v>1</v>
@@ -3308,73 +3433,55 @@
       <c r="G43" s="1"/>
       <c r="H43" s="1"/>
       <c r="I43" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="J43" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="44" spans="1:10" ht="32" x14ac:dyDescent="0.2">
+        <v>20</v>
+      </c>
+      <c r="J43" s="3" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B44" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C44" s="2" t="s">
-        <v>23</v>
+        <v>369</v>
       </c>
       <c r="D44" s="1">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F44" s="1"/>
       <c r="G44" s="1"/>
       <c r="H44" s="1"/>
       <c r="I44" s="3" t="s">
-        <v>7</v>
+        <v>375</v>
       </c>
       <c r="J44" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="45" spans="1:10" ht="32" x14ac:dyDescent="0.2">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B45" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C45" s="2" t="s">
-        <v>23</v>
+        <v>380</v>
       </c>
       <c r="D45" s="1">
-        <v>2</v>
-      </c>
-      <c r="E45" s="1" t="s">
-        <v>505</v>
-      </c>
-      <c r="F45" s="2" t="s">
-        <v>508</v>
-      </c>
-      <c r="H45" s="5" t="s">
-        <v>509</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="F45" s="1"/>
+      <c r="G45" s="1"/>
+      <c r="H45" s="1"/>
       <c r="I45" s="3" t="s">
-        <v>25</v>
+        <v>375</v>
       </c>
       <c r="J45" s="3" t="s">
-        <v>26</v>
+        <v>381</v>
       </c>
     </row>
     <row r="46" spans="1:10" ht="32" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
-        <v>4</v>
+        <v>332</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>5</v>
+        <v>350</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>6</v>
+        <v>351</v>
       </c>
       <c r="D46" s="1">
         <v>1</v>
@@ -3383,21 +3490,21 @@
       <c r="G46" s="1"/>
       <c r="H46" s="1"/>
       <c r="I46" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="J46" s="3" t="s">
-        <v>8</v>
+        <v>352</v>
+      </c>
+      <c r="J46" s="4" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="47" spans="1:10" ht="32" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
-        <v>4</v>
+        <v>332</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>5</v>
+        <v>350</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>6</v>
+        <v>351</v>
       </c>
       <c r="D47" s="1">
         <v>2</v>
@@ -3406,67 +3513,67 @@
       <c r="G47" s="1"/>
       <c r="H47" s="1"/>
       <c r="I47" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="J47" s="4" t="s">
-        <v>10</v>
+        <v>353</v>
+      </c>
+      <c r="J47" s="3" t="s">
+        <v>236</v>
       </c>
     </row>
     <row r="48" spans="1:10" ht="32" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
-        <v>4</v>
+        <v>332</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>5</v>
+        <v>361</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>6</v>
+        <v>362</v>
       </c>
       <c r="D48" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F48" s="1"/>
       <c r="G48" s="1"/>
       <c r="H48" s="1"/>
       <c r="I48" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="J48" s="4" t="s">
-        <v>10</v>
+        <v>353</v>
+      </c>
+      <c r="J48" s="3" t="s">
+        <v>252</v>
       </c>
     </row>
     <row r="49" spans="1:10" ht="32" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
-        <v>4</v>
+        <v>332</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>5</v>
+        <v>333</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>6</v>
+        <v>334</v>
       </c>
       <c r="D49" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F49" s="1"/>
       <c r="G49" s="1"/>
       <c r="H49" s="1"/>
       <c r="I49" s="3" t="s">
-        <v>12</v>
+        <v>335</v>
       </c>
       <c r="J49" s="4" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="50" spans="1:10" ht="32" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
-        <v>4</v>
+        <v>332</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>33</v>
+        <v>348</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>34</v>
+        <v>349</v>
       </c>
       <c r="D50" s="1">
         <v>1</v>
@@ -3475,21 +3582,21 @@
       <c r="G50" s="1"/>
       <c r="H50" s="1"/>
       <c r="I50" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="J50" s="4" t="s">
-        <v>10</v>
+        <v>338</v>
+      </c>
+      <c r="J50" s="3" t="s">
+        <v>252</v>
       </c>
     </row>
     <row r="51" spans="1:10" ht="32" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
-        <v>4</v>
+        <v>332</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>27</v>
+        <v>336</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>28</v>
+        <v>337</v>
       </c>
       <c r="D51" s="1">
         <v>1</v>
@@ -3498,33 +3605,33 @@
       <c r="G51" s="1"/>
       <c r="H51" s="1"/>
       <c r="I51" s="3" t="s">
-        <v>7</v>
+        <v>338</v>
       </c>
       <c r="J51" s="3" t="s">
-        <v>29</v>
+        <v>339</v>
       </c>
     </row>
     <row r="52" spans="1:10" ht="32" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
-        <v>4</v>
+        <v>332</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>42</v>
+        <v>336</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>43</v>
+        <v>337</v>
       </c>
       <c r="D52" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F52" s="1"/>
       <c r="G52" s="1"/>
       <c r="H52" s="1"/>
       <c r="I52" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="J52" s="4" t="s">
-        <v>10</v>
+        <v>338</v>
+      </c>
+      <c r="J52" s="3" t="s">
+        <v>340</v>
       </c>
     </row>
     <row r="53" spans="1:10" ht="32" x14ac:dyDescent="0.2">
@@ -3532,10 +3639,10 @@
         <v>45</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="D53" s="1">
         <v>1</v>
@@ -3544,96 +3651,72 @@
       <c r="G53" s="1"/>
       <c r="H53" s="1"/>
       <c r="I53" s="3" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="J53" s="3" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="54" spans="1:10" ht="32" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B54" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="C54" s="2" t="s">
-        <v>160</v>
+        <v>378</v>
       </c>
       <c r="D54" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F54" s="1"/>
       <c r="G54" s="1"/>
       <c r="H54" s="1"/>
       <c r="I54" s="3" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="J54" s="3" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="55" spans="1:10" ht="32" x14ac:dyDescent="0.2">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B55" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="C55" s="2" t="s">
-        <v>157</v>
+        <v>416</v>
       </c>
       <c r="D55" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F55" s="1"/>
       <c r="G55" s="1"/>
       <c r="H55" s="1"/>
       <c r="I55" s="3" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="J55" s="3" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="56" spans="1:10" ht="80" x14ac:dyDescent="0.2">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B56" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="C56" s="2" t="s">
-        <v>121</v>
+        <v>413</v>
       </c>
       <c r="D56" s="1">
         <v>1</v>
       </c>
-      <c r="E56" s="2" t="s">
-        <v>500</v>
-      </c>
-      <c r="F56" s="2" t="s">
-        <v>504</v>
-      </c>
-      <c r="G56" s="2" t="s">
-        <v>502</v>
-      </c>
+      <c r="F56" s="1"/>
+      <c r="G56" s="1"/>
+      <c r="H56" s="1"/>
       <c r="I56" s="3" t="s">
-        <v>25</v>
+        <v>414</v>
       </c>
       <c r="J56" s="3" t="s">
-        <v>122</v>
+        <v>415</v>
       </c>
     </row>
     <row r="57" spans="1:10" ht="32" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
-        <v>45</v>
+        <v>163</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>107</v>
+        <v>168</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>108</v>
+        <v>169</v>
       </c>
       <c r="D57" s="1">
         <v>1</v>
@@ -3642,21 +3725,21 @@
       <c r="G57" s="1"/>
       <c r="H57" s="1"/>
       <c r="I57" s="3" t="s">
-        <v>7</v>
+        <v>166</v>
       </c>
       <c r="J57" s="3" t="s">
-        <v>109</v>
+        <v>170</v>
       </c>
     </row>
     <row r="58" spans="1:10" ht="32" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
-        <v>45</v>
+        <v>163</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>110</v>
+        <v>164</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>111</v>
+        <v>165</v>
       </c>
       <c r="D58" s="1">
         <v>1</v>
@@ -3665,62 +3748,44 @@
       <c r="G58" s="1"/>
       <c r="H58" s="1"/>
       <c r="I58" s="3" t="s">
-        <v>7</v>
+        <v>166</v>
       </c>
       <c r="J58" s="3" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="59" spans="1:10" ht="32" x14ac:dyDescent="0.2">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B59" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="C59" s="2" t="s">
-        <v>111</v>
+        <v>411</v>
       </c>
       <c r="D59" s="1">
         <v>2</v>
       </c>
-      <c r="E59" s="1" t="s">
-        <v>463</v>
-      </c>
-      <c r="F59" s="2" t="s">
-        <v>501</v>
-      </c>
-      <c r="G59" s="2" t="s">
-        <v>502</v>
-      </c>
+      <c r="F59" s="1"/>
+      <c r="G59" s="1"/>
+      <c r="H59" s="1"/>
       <c r="I59" s="3" t="s">
-        <v>25</v>
+        <v>410</v>
       </c>
       <c r="J59" s="3" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="60" spans="1:10" ht="32" x14ac:dyDescent="0.2">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B60" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="C60" s="2" t="s">
-        <v>64</v>
+        <v>404</v>
       </c>
       <c r="D60" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F60" s="1"/>
       <c r="G60" s="1"/>
       <c r="H60" s="1"/>
       <c r="I60" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="J60" s="4" t="s">
-        <v>10</v>
+        <v>410</v>
+      </c>
+      <c r="J60" s="3" t="s">
+        <v>406</v>
       </c>
     </row>
     <row r="61" spans="1:10" ht="32" x14ac:dyDescent="0.2">
@@ -3728,22 +3793,22 @@
         <v>45</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>63</v>
+        <v>137</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>64</v>
+        <v>138</v>
       </c>
       <c r="D61" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F61" s="1"/>
       <c r="G61" s="1"/>
       <c r="H61" s="1"/>
       <c r="I61" s="3" t="s">
-        <v>66</v>
+        <v>139</v>
       </c>
       <c r="J61" s="3" t="s">
-        <v>67</v>
+        <v>96</v>
       </c>
     </row>
     <row r="62" spans="1:10" ht="32" x14ac:dyDescent="0.2">
@@ -3751,22 +3816,22 @@
         <v>45</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="D62" s="1">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="F62" s="1"/>
       <c r="G62" s="1"/>
       <c r="H62" s="1"/>
       <c r="I62" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="J62" s="4" t="s">
-        <v>10</v>
+        <v>135</v>
+      </c>
+      <c r="J62" s="3" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="63" spans="1:10" ht="32" x14ac:dyDescent="0.2">
@@ -3774,19 +3839,19 @@
         <v>45</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>83</v>
+        <v>123</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>84</v>
+        <v>124</v>
       </c>
       <c r="D63" s="1">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F63" s="1"/>
       <c r="G63" s="1"/>
       <c r="H63" s="1"/>
       <c r="I63" s="3" t="s">
-        <v>85</v>
+        <v>132</v>
       </c>
       <c r="J63" s="3" t="s">
         <v>58</v>
@@ -3797,22 +3862,22 @@
         <v>45</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>83</v>
+        <v>123</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>84</v>
+        <v>124</v>
       </c>
       <c r="D64" s="1">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F64" s="1"/>
       <c r="G64" s="1"/>
       <c r="H64" s="1"/>
       <c r="I64" s="3" t="s">
-        <v>86</v>
+        <v>131</v>
       </c>
       <c r="J64" s="3" t="s">
-        <v>18</v>
+        <v>58</v>
       </c>
     </row>
     <row r="65" spans="1:11" ht="32" x14ac:dyDescent="0.2">
@@ -3820,28 +3885,22 @@
         <v>45</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>83</v>
+        <v>123</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>84</v>
+        <v>124</v>
       </c>
       <c r="D65" s="1">
-        <v>3</v>
-      </c>
-      <c r="E65" s="1" t="s">
-        <v>463</v>
-      </c>
-      <c r="F65" s="2" t="s">
-        <v>465</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="F65" s="1"/>
+      <c r="G65" s="1"/>
+      <c r="H65" s="1"/>
       <c r="I65" s="3" t="s">
-        <v>61</v>
+        <v>134</v>
       </c>
       <c r="J65" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="K65" s="3" t="s">
-        <v>464</v>
+        <v>58</v>
       </c>
     </row>
     <row r="66" spans="1:11" ht="32" x14ac:dyDescent="0.2">
@@ -3849,22 +3908,22 @@
         <v>45</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>83</v>
+        <v>123</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>84</v>
+        <v>124</v>
       </c>
       <c r="D66" s="1">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F66" s="1"/>
       <c r="G66" s="1"/>
       <c r="H66" s="1"/>
       <c r="I66" s="3" t="s">
-        <v>59</v>
+        <v>133</v>
       </c>
       <c r="J66" s="3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="67" spans="1:11" ht="32" x14ac:dyDescent="0.2">
@@ -3872,45 +3931,39 @@
         <v>45</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>68</v>
+        <v>123</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>69</v>
+        <v>124</v>
       </c>
       <c r="D67" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F67" s="1"/>
       <c r="G67" s="1"/>
       <c r="H67" s="1"/>
       <c r="I67" s="3" t="s">
-        <v>70</v>
+        <v>129</v>
       </c>
       <c r="J67" s="3" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="68" spans="1:11" ht="32" x14ac:dyDescent="0.2">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B68" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="C68" s="2" t="s">
-        <v>69</v>
+        <v>404</v>
       </c>
       <c r="D68" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F68" s="1"/>
       <c r="G68" s="1"/>
       <c r="H68" s="1"/>
       <c r="I68" s="3" t="s">
-        <v>59</v>
+        <v>408</v>
       </c>
       <c r="J68" s="3" t="s">
-        <v>60</v>
+        <v>409</v>
       </c>
     </row>
     <row r="69" spans="1:11" ht="32" x14ac:dyDescent="0.2">
@@ -3918,25 +3971,31 @@
         <v>45</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>137</v>
+        <v>123</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>138</v>
+        <v>124</v>
       </c>
       <c r="D69" s="1">
-        <v>1</v>
-      </c>
-      <c r="F69" s="1"/>
-      <c r="G69" s="1"/>
-      <c r="H69" s="1"/>
+        <v>2</v>
+      </c>
+      <c r="E69" s="1" t="s">
+        <v>447</v>
+      </c>
+      <c r="F69" s="2" t="s">
+        <v>452</v>
+      </c>
       <c r="I69" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="J69" s="3" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="70" spans="1:11" ht="32" x14ac:dyDescent="0.2">
+        <v>126</v>
+      </c>
+      <c r="J69" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="K69" s="3" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11" ht="80" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
         <v>45</v>
       </c>
@@ -3947,207 +4006,219 @@
         <v>138</v>
       </c>
       <c r="D70" s="1">
-        <v>2</v>
-      </c>
-      <c r="F70" s="1"/>
-      <c r="G70" s="1"/>
-      <c r="H70" s="1"/>
+        <v>3</v>
+      </c>
+      <c r="E70" s="1" t="s">
+        <v>447</v>
+      </c>
+      <c r="F70" s="2" t="s">
+        <v>456</v>
+      </c>
+      <c r="G70" s="2" t="s">
+        <v>454</v>
+      </c>
       <c r="I70" s="3" t="s">
-        <v>140</v>
+        <v>125</v>
       </c>
       <c r="J70" s="3" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="71" spans="1:11" ht="80" x14ac:dyDescent="0.2">
+        <v>141</v>
+      </c>
+      <c r="K70" s="3" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11" ht="32" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
         <v>45</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>137</v>
+        <v>123</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>138</v>
+        <v>124</v>
       </c>
       <c r="D71" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E71" s="1" t="s">
         <v>447</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>456</v>
-      </c>
-      <c r="G71" s="2" t="s">
-        <v>454</v>
+        <v>457</v>
       </c>
       <c r="I71" s="3" t="s">
         <v>125</v>
       </c>
       <c r="J71" s="3" t="s">
-        <v>141</v>
+        <v>58</v>
       </c>
       <c r="K71" s="3" t="s">
         <v>450</v>
       </c>
     </row>
-    <row r="72" spans="1:11" ht="32" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:11" ht="64" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B72" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="C72" s="2" t="s">
-        <v>138</v>
+        <v>404</v>
       </c>
       <c r="D72" s="1">
-        <v>4</v>
-      </c>
-      <c r="F72" s="1"/>
-      <c r="G72" s="1"/>
-      <c r="H72" s="1"/>
+        <v>2</v>
+      </c>
+      <c r="E72" s="1" t="s">
+        <v>447</v>
+      </c>
+      <c r="F72" s="2" t="s">
+        <v>455</v>
+      </c>
+      <c r="G72" s="2" t="s">
+        <v>454</v>
+      </c>
       <c r="I72" s="3" t="s">
-        <v>20</v>
+        <v>125</v>
       </c>
       <c r="J72" s="3" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="73" spans="1:11" ht="32" x14ac:dyDescent="0.2">
+        <v>407</v>
+      </c>
+      <c r="K72" s="3" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11" ht="48" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
         <v>45</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>88</v>
+        <v>123</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>89</v>
+        <v>124</v>
       </c>
       <c r="D73" s="1">
-        <v>1</v>
-      </c>
-      <c r="F73" s="1"/>
-      <c r="G73" s="1"/>
-      <c r="H73" s="1"/>
+        <v>3</v>
+      </c>
+      <c r="E73" s="1" t="s">
+        <v>447</v>
+      </c>
+      <c r="F73" s="2" t="s">
+        <v>472</v>
+      </c>
       <c r="I73" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="J73" s="3" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="74" spans="1:11" ht="32" x14ac:dyDescent="0.2">
+        <v>127</v>
+      </c>
+      <c r="J73" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="K73" s="3" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11" ht="96" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B74" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="C74" s="2" t="s">
-        <v>89</v>
+        <v>404</v>
       </c>
       <c r="D74" s="1">
-        <v>2</v>
-      </c>
-      <c r="F74" s="1"/>
-      <c r="G74" s="1"/>
-      <c r="H74" s="1"/>
+        <v>1</v>
+      </c>
+      <c r="E74" s="1" t="s">
+        <v>447</v>
+      </c>
+      <c r="F74" s="2" t="s">
+        <v>460</v>
+      </c>
+      <c r="G74" s="2" t="s">
+        <v>459</v>
+      </c>
       <c r="I74" s="3" t="s">
-        <v>59</v>
+        <v>405</v>
       </c>
       <c r="J74" s="3" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="75" spans="1:11" ht="64" x14ac:dyDescent="0.2">
+        <v>406</v>
+      </c>
+      <c r="K74" s="3" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11" ht="32" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
-        <v>45</v>
+        <v>227</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>88</v>
+        <v>228</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>89</v>
+        <v>229</v>
       </c>
       <c r="D75" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>505</v>
+        <v>462</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>506</v>
-      </c>
-      <c r="G75" s="2" t="s">
-        <v>507</v>
-      </c>
-      <c r="H75" s="2" t="s">
-        <v>503</v>
+        <v>461</v>
       </c>
       <c r="I75" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="J75" s="3" t="s">
-        <v>91</v>
+        <v>230</v>
+      </c>
+      <c r="J75" s="4" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="76" spans="1:11" ht="32" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
-        <v>45</v>
+        <v>4</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>97</v>
+        <v>22</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>98</v>
+        <v>23</v>
       </c>
       <c r="D76" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>463</v>
+        <v>505</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>473</v>
+        <v>508</v>
+      </c>
+      <c r="H76" s="5" t="s">
+        <v>509</v>
       </c>
       <c r="I76" s="3" t="s">
-        <v>99</v>
+        <v>25</v>
       </c>
       <c r="J76" s="3" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="77" spans="1:11" ht="32" x14ac:dyDescent="0.2">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11" ht="80" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
         <v>45</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>97</v>
+        <v>120</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>98</v>
+        <v>121</v>
       </c>
       <c r="D77" s="1">
-        <v>2</v>
-      </c>
-      <c r="E77" s="1" t="s">
-        <v>489</v>
+        <v>1</v>
+      </c>
+      <c r="E77" s="2" t="s">
+        <v>500</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>487</v>
-      </c>
-      <c r="H77" s="5" t="s">
-        <v>510</v>
+        <v>504</v>
+      </c>
+      <c r="G77" s="2" t="s">
+        <v>502</v>
       </c>
       <c r="I77" s="3" t="s">
-        <v>101</v>
+        <v>25</v>
       </c>
       <c r="J77" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="K77" s="3" t="s">
-        <v>486</v>
+        <v>122</v>
       </c>
     </row>
     <row r="78" spans="1:11" ht="32" x14ac:dyDescent="0.2">
@@ -4155,389 +4226,371 @@
         <v>45</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>97</v>
+        <v>110</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>98</v>
+        <v>111</v>
       </c>
       <c r="D78" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E78" s="1" t="s">
         <v>463</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>466</v>
+        <v>501</v>
+      </c>
+      <c r="G78" s="2" t="s">
+        <v>502</v>
       </c>
       <c r="I78" s="3" t="s">
-        <v>61</v>
+        <v>25</v>
       </c>
       <c r="J78" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="K78" s="3" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="79" spans="1:11" ht="32" x14ac:dyDescent="0.2">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11" ht="80" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="s">
         <v>45</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>150</v>
+        <v>88</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>151</v>
+        <v>89</v>
       </c>
       <c r="D79" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>463</v>
+        <v>505</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>467</v>
+        <v>506</v>
+      </c>
+      <c r="G79" s="2" t="s">
+        <v>507</v>
+      </c>
+      <c r="H79" s="2" t="s">
+        <v>503</v>
       </c>
       <c r="I79" s="3" t="s">
-        <v>61</v>
+        <v>25</v>
       </c>
       <c r="J79" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="K79" s="3" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="80" spans="1:11" ht="32" x14ac:dyDescent="0.2">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11" ht="256" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
         <v>45</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>123</v>
+        <v>103</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>124</v>
+        <v>104</v>
       </c>
       <c r="D80" s="1">
         <v>1</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>447</v>
+        <v>500</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>457</v>
+        <v>525</v>
+      </c>
+      <c r="G80" s="2" t="s">
+        <v>512</v>
+      </c>
+      <c r="H80" s="5" t="s">
+        <v>524</v>
       </c>
       <c r="I80" s="3" t="s">
-        <v>125</v>
+        <v>25</v>
       </c>
       <c r="J80" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="K80" s="3" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="81" spans="1:11" ht="32" x14ac:dyDescent="0.2">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11" ht="144" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B81" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="C81" s="2" t="s">
-        <v>124</v>
+        <v>369</v>
       </c>
       <c r="D81" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>447</v>
+        <v>505</v>
       </c>
       <c r="F81" s="2" t="s">
-        <v>452</v>
+        <v>515</v>
+      </c>
+      <c r="G81" s="2" t="s">
+        <v>516</v>
+      </c>
+      <c r="H81" s="5" t="s">
+        <v>514</v>
       </c>
       <c r="I81" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="J81" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="K81" s="3" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="82" spans="1:11" ht="48" x14ac:dyDescent="0.2">
+        <v>25</v>
+      </c>
+      <c r="J81" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="K81" s="4" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11" ht="96" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B82" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="C82" s="2" t="s">
-        <v>124</v>
+        <v>398</v>
       </c>
       <c r="D82" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>447</v>
+        <v>500</v>
       </c>
       <c r="F82" s="2" t="s">
-        <v>472</v>
+        <v>517</v>
+      </c>
+      <c r="G82" s="2" t="s">
+        <v>518</v>
       </c>
       <c r="I82" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="J82" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="K82" s="3" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="83" spans="1:11" ht="32" x14ac:dyDescent="0.2">
+        <v>25</v>
+      </c>
+      <c r="J82" s="3" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11" ht="80" x14ac:dyDescent="0.2">
       <c r="A83" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B83" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="C83" s="2" t="s">
-        <v>124</v>
+        <v>400</v>
       </c>
       <c r="D83" s="1">
-        <v>4</v>
-      </c>
-      <c r="F83" s="1"/>
-      <c r="G83" s="1"/>
-      <c r="H83" s="1"/>
+        <v>1</v>
+      </c>
+      <c r="E83" s="1" t="s">
+        <v>505</v>
+      </c>
+      <c r="F83" s="2" t="s">
+        <v>519</v>
+      </c>
       <c r="I83" s="3" t="s">
-        <v>129</v>
+        <v>25</v>
       </c>
       <c r="J83" s="3" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="84" spans="1:11" ht="32" x14ac:dyDescent="0.2">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11" ht="64" x14ac:dyDescent="0.2">
       <c r="A84" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B84" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="C84" s="2" t="s">
-        <v>124</v>
+        <v>392</v>
       </c>
       <c r="D84" s="1">
-        <v>5</v>
-      </c>
-      <c r="F84" s="1"/>
-      <c r="G84" s="1"/>
-      <c r="H84" s="1"/>
+        <v>1</v>
+      </c>
+      <c r="E84" s="1" t="s">
+        <v>505</v>
+      </c>
+      <c r="F84" s="2" t="s">
+        <v>521</v>
+      </c>
+      <c r="H84" s="5" t="s">
+        <v>520</v>
+      </c>
       <c r="I84" s="3" t="s">
-        <v>131</v>
+        <v>25</v>
       </c>
       <c r="J84" s="3" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="85" spans="1:11" ht="32" x14ac:dyDescent="0.2">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11" ht="112" x14ac:dyDescent="0.2">
       <c r="A85" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B85" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="C85" s="2" t="s">
-        <v>124</v>
+        <v>425</v>
       </c>
       <c r="D85" s="1">
-        <v>6</v>
-      </c>
-      <c r="F85" s="1"/>
-      <c r="G85" s="1"/>
-      <c r="H85" s="1"/>
+        <v>1</v>
+      </c>
+      <c r="E85" s="1" t="s">
+        <v>538</v>
+      </c>
+      <c r="F85" s="2" t="s">
+        <v>523</v>
+      </c>
+      <c r="H85" s="5" t="s">
+        <v>522</v>
+      </c>
       <c r="I85" s="3" t="s">
-        <v>132</v>
+        <v>25</v>
       </c>
       <c r="J85" s="3" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="86" spans="1:11" ht="32" x14ac:dyDescent="0.2">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11" ht="64" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B86" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="C86" s="2" t="s">
-        <v>124</v>
+        <v>423</v>
       </c>
       <c r="D86" s="1">
-        <v>7</v>
-      </c>
-      <c r="F86" s="1"/>
-      <c r="G86" s="1"/>
-      <c r="H86" s="1"/>
+        <v>1</v>
+      </c>
+      <c r="E86" s="1" t="s">
+        <v>538</v>
+      </c>
+      <c r="F86" s="2" t="s">
+        <v>523</v>
+      </c>
       <c r="I86" s="3" t="s">
-        <v>133</v>
+        <v>25</v>
       </c>
       <c r="J86" s="3" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="87" spans="1:11" ht="32" x14ac:dyDescent="0.2">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11" ht="112" x14ac:dyDescent="0.2">
       <c r="A87" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B87" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="C87" s="2" t="s">
-        <v>124</v>
+        <v>402</v>
       </c>
       <c r="D87" s="1">
-        <v>8</v>
-      </c>
-      <c r="F87" s="1"/>
-      <c r="G87" s="1"/>
-      <c r="H87" s="1"/>
+        <v>1</v>
+      </c>
+      <c r="E87" s="1" t="s">
+        <v>500</v>
+      </c>
+      <c r="F87" s="2" t="s">
+        <v>526</v>
+      </c>
+      <c r="G87" s="2" t="s">
+        <v>527</v>
+      </c>
+      <c r="H87" s="5" t="s">
+        <v>528</v>
+      </c>
       <c r="I87" s="3" t="s">
-        <v>134</v>
+        <v>25</v>
       </c>
       <c r="J87" s="3" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="88" spans="1:11" ht="32" x14ac:dyDescent="0.2">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A88" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B88" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="C88" s="2" t="s">
-        <v>124</v>
+        <v>429</v>
       </c>
       <c r="D88" s="1">
-        <v>9</v>
-      </c>
-      <c r="F88" s="1"/>
-      <c r="G88" s="1"/>
-      <c r="H88" s="1"/>
+        <v>1</v>
+      </c>
+      <c r="E88" s="1" t="s">
+        <v>538</v>
+      </c>
+      <c r="F88" s="2" t="s">
+        <v>539</v>
+      </c>
       <c r="I88" s="3" t="s">
-        <v>135</v>
+        <v>25</v>
       </c>
       <c r="J88" s="3" t="s">
-        <v>90</v>
+        <v>430</v>
       </c>
     </row>
     <row r="89" spans="1:11" ht="32" x14ac:dyDescent="0.2">
       <c r="A89" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B89" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="C89" s="2" t="s">
-        <v>124</v>
+        <v>431</v>
       </c>
       <c r="D89" s="1">
-        <v>10</v>
-      </c>
-      <c r="F89" s="1"/>
-      <c r="G89" s="1"/>
-      <c r="H89" s="1"/>
+        <v>1</v>
+      </c>
+      <c r="E89" s="1" t="s">
+        <v>537</v>
+      </c>
+      <c r="F89" s="2" t="s">
+        <v>530</v>
+      </c>
+      <c r="H89" s="5" t="s">
+        <v>529</v>
+      </c>
       <c r="I89" s="3" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="J89" s="3" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="90" spans="1:11" ht="256" x14ac:dyDescent="0.2">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11" ht="32" x14ac:dyDescent="0.2">
       <c r="A90" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B90" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="C90" s="2" t="s">
-        <v>104</v>
+        <v>388</v>
       </c>
       <c r="D90" s="1">
         <v>1</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>500</v>
+        <v>505</v>
       </c>
       <c r="F90" s="2" t="s">
-        <v>525</v>
-      </c>
-      <c r="G90" s="2" t="s">
-        <v>512</v>
-      </c>
-      <c r="H90" s="5" t="s">
-        <v>524</v>
+        <v>531</v>
       </c>
       <c r="I90" s="3" t="s">
         <v>25</v>
       </c>
       <c r="J90" s="3" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="91" spans="1:11" ht="32" x14ac:dyDescent="0.2">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11" ht="192" x14ac:dyDescent="0.2">
       <c r="A91" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B91" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="C91" s="2" t="s">
-        <v>104</v>
+        <v>366</v>
       </c>
       <c r="D91" s="1">
-        <v>2</v>
-      </c>
-      <c r="F91" s="1"/>
-      <c r="G91" s="1"/>
-      <c r="H91" s="1"/>
+        <v>1</v>
+      </c>
+      <c r="E91" s="1" t="s">
+        <v>500</v>
+      </c>
+      <c r="F91" s="2" t="s">
+        <v>532</v>
+      </c>
+      <c r="H91" s="5" t="s">
+        <v>533</v>
+      </c>
       <c r="I91" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="J91" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="92" spans="1:11" ht="32" x14ac:dyDescent="0.2">
+        <v>25</v>
+      </c>
+      <c r="J91" s="3" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11" ht="112" x14ac:dyDescent="0.2">
       <c r="A92" s="1" t="s">
-        <v>45</v>
+        <v>182</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>92</v>
+        <v>194</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>93</v>
+        <v>195</v>
       </c>
       <c r="D92" s="1">
         <v>1</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>463</v>
+        <v>491</v>
       </c>
       <c r="F92" s="2" t="s">
-        <v>468</v>
+        <v>534</v>
+      </c>
+      <c r="H92" s="5" t="s">
+        <v>536</v>
       </c>
       <c r="I92" s="3" t="s">
-        <v>61</v>
+        <v>25</v>
       </c>
       <c r="J92" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="K92" s="3" t="s">
-        <v>464</v>
+        <v>196</v>
       </c>
     </row>
     <row r="93" spans="1:11" ht="32" x14ac:dyDescent="0.2">
@@ -4545,22 +4598,28 @@
         <v>45</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="D93" s="1">
-        <v>2</v>
-      </c>
-      <c r="F93" s="1"/>
-      <c r="G93" s="1"/>
-      <c r="H93" s="1"/>
+        <v>3</v>
+      </c>
+      <c r="E93" s="1" t="s">
+        <v>463</v>
+      </c>
+      <c r="F93" s="2" t="s">
+        <v>465</v>
+      </c>
       <c r="I93" s="3" t="s">
-        <v>95</v>
+        <v>61</v>
       </c>
       <c r="J93" s="3" t="s">
-        <v>96</v>
+        <v>87</v>
+      </c>
+      <c r="K93" s="3" t="s">
+        <v>464</v>
       </c>
     </row>
     <row r="94" spans="1:11" ht="32" x14ac:dyDescent="0.2">
@@ -4568,68 +4627,86 @@
         <v>45</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="D94" s="1">
         <v>3</v>
       </c>
-      <c r="F94" s="1"/>
-      <c r="G94" s="1"/>
-      <c r="H94" s="1"/>
+      <c r="E94" s="1" t="s">
+        <v>463</v>
+      </c>
+      <c r="F94" s="2" t="s">
+        <v>466</v>
+      </c>
       <c r="I94" s="3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="J94" s="3" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="95" spans="1:11" ht="48" x14ac:dyDescent="0.2">
+        <v>102</v>
+      </c>
+      <c r="K94" s="3" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11" ht="32" x14ac:dyDescent="0.2">
       <c r="A95" s="1" t="s">
         <v>45</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>52</v>
+        <v>150</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>53</v>
+        <v>151</v>
       </c>
       <c r="D95" s="1">
         <v>1</v>
       </c>
-      <c r="F95" s="1"/>
-      <c r="G95" s="1"/>
-      <c r="H95" s="1"/>
+      <c r="E95" s="1" t="s">
+        <v>463</v>
+      </c>
+      <c r="F95" s="2" t="s">
+        <v>467</v>
+      </c>
       <c r="I95" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="J95" s="4" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="96" spans="1:11" ht="48" x14ac:dyDescent="0.2">
+        <v>61</v>
+      </c>
+      <c r="J95" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="K95" s="3" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11" ht="32" x14ac:dyDescent="0.2">
       <c r="A96" s="1" t="s">
         <v>45</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>52</v>
+        <v>92</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>53</v>
+        <v>93</v>
       </c>
       <c r="D96" s="1">
-        <v>2</v>
-      </c>
-      <c r="F96" s="1"/>
-      <c r="G96" s="1"/>
-      <c r="H96" s="1"/>
+        <v>1</v>
+      </c>
+      <c r="E96" s="1" t="s">
+        <v>463</v>
+      </c>
+      <c r="F96" s="2" t="s">
+        <v>468</v>
+      </c>
       <c r="I96" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="J96" s="4" t="s">
-        <v>55</v>
+        <v>61</v>
+      </c>
+      <c r="J96" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="K96" s="3" t="s">
+        <v>464</v>
       </c>
     </row>
     <row r="97" spans="1:11" ht="32" x14ac:dyDescent="0.2">
@@ -4643,16 +4720,22 @@
         <v>53</v>
       </c>
       <c r="D97" s="1">
-        <v>3</v>
-      </c>
-      <c r="F97" s="1"/>
-      <c r="G97" s="1"/>
-      <c r="H97" s="1"/>
+        <v>5</v>
+      </c>
+      <c r="E97" s="1" t="s">
+        <v>463</v>
+      </c>
+      <c r="F97" s="2" t="s">
+        <v>469</v>
+      </c>
       <c r="I97" s="3" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="J97" s="3" t="s">
-        <v>58</v>
+        <v>62</v>
+      </c>
+      <c r="K97" s="3" t="s">
+        <v>464</v>
       </c>
     </row>
     <row r="98" spans="1:11" ht="32" x14ac:dyDescent="0.2">
@@ -4660,33 +4743,39 @@
         <v>45</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>52</v>
+        <v>76</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>53</v>
+        <v>77</v>
       </c>
       <c r="D98" s="1">
-        <v>4</v>
-      </c>
-      <c r="F98" s="1"/>
-      <c r="G98" s="1"/>
-      <c r="H98" s="1"/>
+        <v>5</v>
+      </c>
+      <c r="E98" s="1" t="s">
+        <v>463</v>
+      </c>
+      <c r="F98" s="2" t="s">
+        <v>470</v>
+      </c>
       <c r="I98" s="3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="J98" s="3" t="s">
-        <v>60</v>
+        <v>82</v>
+      </c>
+      <c r="K98" s="3" t="s">
+        <v>464</v>
       </c>
     </row>
     <row r="99" spans="1:11" ht="32" x14ac:dyDescent="0.2">
       <c r="A99" s="1" t="s">
-        <v>45</v>
+        <v>171</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>52</v>
+        <v>178</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>53</v>
+        <v>179</v>
       </c>
       <c r="D99" s="1">
         <v>5</v>
@@ -4709,25 +4798,31 @@
     </row>
     <row r="100" spans="1:11" ht="32" x14ac:dyDescent="0.2">
       <c r="A100" s="1" t="s">
-        <v>45</v>
+        <v>182</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>117</v>
+        <v>183</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>118</v>
+        <v>184</v>
       </c>
       <c r="D100" s="1">
-        <v>1</v>
-      </c>
-      <c r="F100" s="1"/>
-      <c r="G100" s="1"/>
-      <c r="H100" s="1"/>
+        <v>2</v>
+      </c>
+      <c r="E100" s="1" t="s">
+        <v>463</v>
+      </c>
+      <c r="F100" s="2" t="s">
+        <v>471</v>
+      </c>
       <c r="I100" s="3" t="s">
-        <v>7</v>
+        <v>61</v>
       </c>
       <c r="J100" s="3" t="s">
-        <v>119</v>
+        <v>186</v>
+      </c>
+      <c r="K100" s="3" t="s">
+        <v>464</v>
       </c>
     </row>
     <row r="101" spans="1:11" ht="32" x14ac:dyDescent="0.2">
@@ -4735,166 +4830,187 @@
         <v>45</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>117</v>
+        <v>97</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>118</v>
+        <v>98</v>
       </c>
       <c r="D101" s="1">
-        <v>2</v>
-      </c>
-      <c r="F101" s="1"/>
-      <c r="G101" s="1"/>
-      <c r="H101" s="1"/>
+        <v>1</v>
+      </c>
+      <c r="E101" s="1" t="s">
+        <v>463</v>
+      </c>
+      <c r="F101" s="2" t="s">
+        <v>473</v>
+      </c>
       <c r="I101" s="3" t="s">
-        <v>59</v>
+        <v>99</v>
       </c>
       <c r="J101" s="3" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="102" spans="1:11" ht="32" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11" ht="64" x14ac:dyDescent="0.2">
       <c r="A102" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B102" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="C102" s="2" t="s">
-        <v>77</v>
+        <v>394</v>
       </c>
       <c r="D102" s="1">
         <v>1</v>
       </c>
-      <c r="F102" s="1"/>
-      <c r="G102" s="1"/>
-      <c r="H102" s="1"/>
+      <c r="E102" s="1" t="s">
+        <v>463</v>
+      </c>
+      <c r="F102" s="2" t="s">
+        <v>488</v>
+      </c>
+      <c r="G102" s="2" t="s">
+        <v>476</v>
+      </c>
+      <c r="H102" s="2" t="s">
+        <v>474</v>
+      </c>
       <c r="I102" s="3" t="s">
-        <v>78</v>
+        <v>99</v>
       </c>
       <c r="J102" s="3" t="s">
-        <v>58</v>
+        <v>395</v>
       </c>
     </row>
     <row r="103" spans="1:11" ht="32" x14ac:dyDescent="0.2">
       <c r="A103" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B103" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="C103" s="2" t="s">
-        <v>77</v>
+        <v>369</v>
       </c>
       <c r="D103" s="1">
-        <v>2</v>
-      </c>
-      <c r="F103" s="1"/>
-      <c r="G103" s="1"/>
-      <c r="H103" s="1"/>
+        <v>3</v>
+      </c>
+      <c r="E103" s="1" t="s">
+        <v>463</v>
+      </c>
+      <c r="F103" s="2" t="s">
+        <v>477</v>
+      </c>
+      <c r="G103" s="2" t="s">
+        <v>478</v>
+      </c>
       <c r="I103" s="3" t="s">
-        <v>79</v>
+        <v>371</v>
       </c>
       <c r="J103" s="3" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="104" spans="1:11" ht="32" x14ac:dyDescent="0.2">
+        <v>223</v>
+      </c>
+      <c r="K103" s="3" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A104" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B104" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="C104" s="2" t="s">
-        <v>77</v>
+        <v>380</v>
       </c>
       <c r="D104" s="1">
-        <v>3</v>
-      </c>
-      <c r="F104" s="1"/>
-      <c r="G104" s="1"/>
-      <c r="H104" s="1"/>
+        <v>1</v>
+      </c>
+      <c r="E104" s="1" t="s">
+        <v>463</v>
+      </c>
+      <c r="F104" s="2" t="s">
+        <v>479</v>
+      </c>
       <c r="I104" s="3" t="s">
-        <v>80</v>
+        <v>371</v>
       </c>
       <c r="J104" s="3" t="s">
-        <v>18</v>
+        <v>381</v>
+      </c>
+      <c r="K104" s="3" t="s">
+        <v>475</v>
       </c>
     </row>
     <row r="105" spans="1:11" ht="32" x14ac:dyDescent="0.2">
       <c r="A105" s="1" t="s">
-        <v>45</v>
+        <v>171</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>76</v>
+        <v>172</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>77</v>
+        <v>173</v>
       </c>
       <c r="D105" s="1">
-        <v>4</v>
-      </c>
-      <c r="F105" s="1"/>
-      <c r="G105" s="1"/>
-      <c r="H105" s="1"/>
+        <v>2</v>
+      </c>
+      <c r="E105" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="F105" s="2" t="s">
+        <v>481</v>
+      </c>
+      <c r="H105" s="2" t="s">
+        <v>482</v>
+      </c>
       <c r="I105" s="3" t="s">
-        <v>81</v>
+        <v>176</v>
       </c>
       <c r="J105" s="3" t="s">
-        <v>75</v>
+        <v>177</v>
+      </c>
+      <c r="K105" s="3" t="s">
+        <v>480</v>
       </c>
     </row>
     <row r="106" spans="1:11" ht="32" x14ac:dyDescent="0.2">
       <c r="A106" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B106" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="C106" s="2" t="s">
-        <v>77</v>
+        <v>416</v>
       </c>
       <c r="D106" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E106" s="1" t="s">
-        <v>463</v>
+        <v>489</v>
       </c>
       <c r="F106" s="2" t="s">
-        <v>470</v>
+        <v>483</v>
+      </c>
+      <c r="H106" s="5" t="s">
+        <v>511</v>
       </c>
       <c r="I106" s="3" t="s">
-        <v>61</v>
+        <v>176</v>
       </c>
       <c r="J106" s="3" t="s">
-        <v>82</v>
+        <v>417</v>
       </c>
       <c r="K106" s="3" t="s">
-        <v>464</v>
+        <v>480</v>
       </c>
     </row>
     <row r="107" spans="1:11" ht="32" x14ac:dyDescent="0.2">
       <c r="A107" s="1" t="s">
-        <v>45</v>
+        <v>171</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>76</v>
+        <v>172</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>77</v>
+        <v>173</v>
       </c>
       <c r="D107" s="1">
-        <v>6</v>
-      </c>
-      <c r="F107" s="1"/>
-      <c r="G107" s="1"/>
-      <c r="H107" s="1"/>
+        <v>1</v>
+      </c>
+      <c r="E107" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="F107" s="2" t="s">
+        <v>485</v>
+      </c>
       <c r="I107" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="J107" s="3" t="s">
-        <v>60</v>
+        <v>174</v>
+      </c>
+      <c r="J107" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="K107" s="3" t="s">
+        <v>484</v>
       </c>
     </row>
     <row r="108" spans="1:11" ht="32" x14ac:dyDescent="0.2">
@@ -4902,254 +5018,288 @@
         <v>45</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>72</v>
+        <v>97</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>73</v>
+        <v>98</v>
       </c>
       <c r="D108" s="1">
-        <v>1</v>
-      </c>
-      <c r="F108" s="1"/>
-      <c r="G108" s="1"/>
-      <c r="H108" s="1"/>
+        <v>2</v>
+      </c>
+      <c r="E108" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="F108" s="2" t="s">
+        <v>487</v>
+      </c>
+      <c r="H108" s="5" t="s">
+        <v>510</v>
+      </c>
       <c r="I108" s="3" t="s">
-        <v>74</v>
+        <v>101</v>
       </c>
       <c r="J108" s="3" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="109" spans="1:11" ht="32" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="K108" s="3" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="109" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A109" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B109" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="C109" s="2" t="s">
-        <v>73</v>
+        <v>394</v>
       </c>
       <c r="D109" s="1">
         <v>2</v>
       </c>
-      <c r="F109" s="1"/>
-      <c r="G109" s="1"/>
-      <c r="H109" s="1"/>
+      <c r="E109" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="F109" s="2" t="s">
+        <v>488</v>
+      </c>
       <c r="I109" s="3" t="s">
-        <v>59</v>
+        <v>101</v>
       </c>
       <c r="J109" s="3" t="s">
-        <v>60</v>
+        <v>395</v>
+      </c>
+      <c r="K109" s="3" t="s">
+        <v>486</v>
       </c>
     </row>
     <row r="110" spans="1:11" ht="32" x14ac:dyDescent="0.2">
       <c r="A110" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B110" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="C110" s="2" t="s">
-        <v>154</v>
+        <v>369</v>
       </c>
       <c r="D110" s="1">
-        <v>1</v>
-      </c>
-      <c r="F110" s="1"/>
-      <c r="G110" s="1"/>
-      <c r="H110" s="1"/>
+        <v>4</v>
+      </c>
+      <c r="E110" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="F110" s="2" t="s">
+        <v>477</v>
+      </c>
+      <c r="G110" s="2" t="s">
+        <v>478</v>
+      </c>
       <c r="I110" s="3" t="s">
-        <v>155</v>
+        <v>372</v>
       </c>
       <c r="J110" s="3" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="111" spans="1:11" ht="32" x14ac:dyDescent="0.2">
+        <v>223</v>
+      </c>
+      <c r="K110" s="3" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="111" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A111" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B111" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="C111" s="2" t="s">
-        <v>144</v>
+        <v>380</v>
       </c>
       <c r="D111" s="1">
-        <v>1</v>
-      </c>
-      <c r="F111" s="1"/>
-      <c r="G111" s="1"/>
-      <c r="H111" s="1"/>
+        <v>2</v>
+      </c>
+      <c r="E111" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="F111" s="2" t="s">
+        <v>479</v>
+      </c>
       <c r="I111" s="3" t="s">
-        <v>145</v>
+        <v>372</v>
       </c>
       <c r="J111" s="3" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="112" spans="1:11" ht="32" x14ac:dyDescent="0.2">
+        <v>381</v>
+      </c>
+      <c r="K111" s="3" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="112" spans="1:11" ht="96" x14ac:dyDescent="0.2">
       <c r="A112" s="1" t="s">
-        <v>45</v>
+        <v>182</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>143</v>
+        <v>194</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>144</v>
+        <v>195</v>
       </c>
       <c r="D112" s="1">
-        <v>2</v>
-      </c>
-      <c r="F112" s="1"/>
-      <c r="G112" s="1"/>
-      <c r="H112" s="1"/>
+        <v>4</v>
+      </c>
+      <c r="E112" s="1" t="s">
+        <v>491</v>
+      </c>
+      <c r="F112" s="2" t="s">
+        <v>535</v>
+      </c>
+      <c r="H112" s="5"/>
       <c r="I112" s="3" t="s">
-        <v>146</v>
+        <v>200</v>
       </c>
       <c r="J112" s="3" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="113" spans="1:10" ht="32" x14ac:dyDescent="0.2">
+        <v>201</v>
+      </c>
+      <c r="K112" s="3" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="113" spans="1:10" ht="48" x14ac:dyDescent="0.2">
       <c r="A113" s="1" t="s">
-        <v>45</v>
+        <v>182</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>143</v>
+        <v>183</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>144</v>
+        <v>184</v>
       </c>
       <c r="D113" s="1">
-        <v>3</v>
-      </c>
-      <c r="F113" s="1"/>
-      <c r="G113" s="1"/>
-      <c r="H113" s="1"/>
+        <v>1</v>
+      </c>
+      <c r="E113" s="1" t="s">
+        <v>491</v>
+      </c>
+      <c r="F113" s="2" t="s">
+        <v>492</v>
+      </c>
+      <c r="G113" s="2" t="s">
+        <v>493</v>
+      </c>
       <c r="I113" s="3" t="s">
-        <v>147</v>
-      </c>
-      <c r="J113" s="3" t="s">
-        <v>58</v>
+        <v>185</v>
+      </c>
+      <c r="J113" s="4" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="114" spans="1:10" ht="32" x14ac:dyDescent="0.2">
       <c r="A114" s="1" t="s">
-        <v>45</v>
+        <v>182</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>143</v>
+        <v>190</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>144</v>
+        <v>191</v>
       </c>
       <c r="D114" s="1">
-        <v>4</v>
-      </c>
-      <c r="F114" s="1"/>
-      <c r="G114" s="1"/>
-      <c r="H114" s="1"/>
+        <v>2</v>
+      </c>
+      <c r="E114" s="1" t="s">
+        <v>491</v>
+      </c>
+      <c r="F114" s="2" t="s">
+        <v>494</v>
+      </c>
       <c r="I114" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="J114" s="3" t="s">
-        <v>58</v>
+        <v>193</v>
+      </c>
+      <c r="J114" s="4" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="115" spans="1:10" ht="32" x14ac:dyDescent="0.2">
       <c r="A115" s="1" t="s">
-        <v>45</v>
+        <v>182</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>143</v>
+        <v>190</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>144</v>
+        <v>191</v>
       </c>
       <c r="D115" s="1">
-        <v>5</v>
-      </c>
-      <c r="F115" s="1"/>
-      <c r="G115" s="1"/>
-      <c r="H115" s="1"/>
+        <v>1</v>
+      </c>
+      <c r="E115" s="1" t="s">
+        <v>491</v>
+      </c>
+      <c r="F115" s="2" t="s">
+        <v>495</v>
+      </c>
       <c r="I115" s="3" t="s">
-        <v>149</v>
-      </c>
-      <c r="J115" s="4" t="s">
-        <v>10</v>
+        <v>192</v>
+      </c>
+      <c r="J115" s="3" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="116" spans="1:10" ht="32" x14ac:dyDescent="0.2">
       <c r="A116" s="1" t="s">
-        <v>45</v>
+        <v>202</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>143</v>
+        <v>203</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>144</v>
+        <v>204</v>
       </c>
       <c r="D116" s="1">
-        <v>6</v>
-      </c>
-      <c r="F116" s="1"/>
-      <c r="G116" s="1"/>
-      <c r="H116" s="1"/>
+        <v>1</v>
+      </c>
+      <c r="E116" s="1" t="s">
+        <v>496</v>
+      </c>
+      <c r="F116" s="2" t="s">
+        <v>497</v>
+      </c>
       <c r="I116" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="J116" s="3" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="117" spans="1:10" x14ac:dyDescent="0.2">
+        <v>205</v>
+      </c>
+      <c r="J116" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="117" spans="1:10" ht="32" x14ac:dyDescent="0.2">
       <c r="A117" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="C117" s="1" t="s">
-        <v>46</v>
+        <v>202</v>
+      </c>
+      <c r="B117" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="C117" s="2" t="s">
+        <v>210</v>
       </c>
       <c r="D117" s="1">
         <v>1</v>
       </c>
-      <c r="F117" s="1"/>
-      <c r="G117" s="1"/>
-      <c r="H117" s="1"/>
+      <c r="E117" s="1" t="s">
+        <v>496</v>
+      </c>
+      <c r="F117" s="2" t="s">
+        <v>494</v>
+      </c>
       <c r="I117" s="3" t="s">
-        <v>47</v>
+        <v>211</v>
       </c>
       <c r="J117" s="3" t="s">
-        <v>48</v>
+        <v>18</v>
       </c>
     </row>
     <row r="118" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A118" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="C118" s="1" t="s">
-        <v>46</v>
+        <v>433</v>
       </c>
       <c r="D118" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F118" s="1"/>
       <c r="G118" s="1"/>
       <c r="H118" s="1"/>
       <c r="I118" s="3" t="s">
-        <v>49</v>
+        <v>434</v>
       </c>
       <c r="J118" s="3" t="s">
-        <v>48</v>
+        <v>435</v>
       </c>
     </row>
     <row r="119" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A119" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="C119" s="1" t="s">
-        <v>46</v>
+        <v>382</v>
       </c>
       <c r="D119" s="1">
         <v>3</v>
@@ -5158,64 +5308,49 @@
       <c r="G119" s="1"/>
       <c r="H119" s="1"/>
       <c r="I119" s="3" t="s">
-        <v>50</v>
+        <v>385</v>
       </c>
       <c r="J119" s="3" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
     </row>
     <row r="120" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A120" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="C120" s="1" t="s">
-        <v>46</v>
+        <v>382</v>
       </c>
       <c r="D120" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F120" s="1"/>
       <c r="G120" s="1"/>
       <c r="H120" s="1"/>
       <c r="I120" s="3" t="s">
-        <v>51</v>
+        <v>384</v>
       </c>
       <c r="J120" s="3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="121" spans="1:10" ht="32" x14ac:dyDescent="0.2">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="121" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A121" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="B121" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="C121" s="2" t="s">
-        <v>225</v>
+        <v>388</v>
       </c>
       <c r="D121" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F121" s="1"/>
       <c r="G121" s="1"/>
       <c r="H121" s="1"/>
       <c r="I121" s="3" t="s">
-        <v>216</v>
+        <v>391</v>
       </c>
       <c r="J121" s="3" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="122" spans="1:10" ht="32" x14ac:dyDescent="0.2">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="122" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A122" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="B122" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="C122" s="2" t="s">
-        <v>225</v>
+        <v>388</v>
       </c>
       <c r="D122" s="1">
         <v>2</v>
@@ -5224,159 +5359,150 @@
       <c r="G122" s="1"/>
       <c r="H122" s="1"/>
       <c r="I122" s="3" t="s">
-        <v>215</v>
-      </c>
-      <c r="J122" s="4" t="s">
-        <v>10</v>
+        <v>389</v>
+      </c>
+      <c r="J122" s="3" t="s">
+        <v>390</v>
       </c>
     </row>
     <row r="123" spans="1:10" ht="32" x14ac:dyDescent="0.2">
       <c r="A123" s="1" t="s">
-        <v>212</v>
+        <v>296</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>220</v>
+        <v>301</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>221</v>
+        <v>302</v>
       </c>
       <c r="D123" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F123" s="1"/>
       <c r="G123" s="1"/>
       <c r="H123" s="1"/>
       <c r="I123" s="3" t="s">
-        <v>222</v>
+        <v>307</v>
       </c>
       <c r="J123" s="3" t="s">
-        <v>177</v>
+        <v>58</v>
       </c>
     </row>
     <row r="124" spans="1:10" ht="32" x14ac:dyDescent="0.2">
       <c r="A124" s="1" t="s">
-        <v>212</v>
+        <v>296</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>220</v>
+        <v>301</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>221</v>
+        <v>302</v>
       </c>
       <c r="D124" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F124" s="1"/>
       <c r="G124" s="1"/>
       <c r="H124" s="1"/>
       <c r="I124" s="3" t="s">
-        <v>59</v>
+        <v>306</v>
       </c>
       <c r="J124" s="3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="125" spans="1:10" ht="32" x14ac:dyDescent="0.2">
       <c r="A125" s="1" t="s">
-        <v>212</v>
+        <v>296</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>220</v>
+        <v>301</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>221</v>
+        <v>302</v>
       </c>
       <c r="D125" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F125" s="1"/>
       <c r="G125" s="1"/>
       <c r="H125" s="1"/>
       <c r="I125" s="3" t="s">
-        <v>216</v>
+        <v>308</v>
       </c>
       <c r="J125" s="3" t="s">
-        <v>223</v>
+        <v>304</v>
       </c>
     </row>
     <row r="126" spans="1:10" ht="32" x14ac:dyDescent="0.2">
       <c r="A126" s="1" t="s">
-        <v>212</v>
+        <v>296</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>213</v>
+        <v>301</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>214</v>
+        <v>302</v>
       </c>
       <c r="D126" s="1">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F126" s="1"/>
       <c r="G126" s="1"/>
       <c r="H126" s="1"/>
       <c r="I126" s="3" t="s">
-        <v>215</v>
-      </c>
-      <c r="J126" s="4" t="s">
-        <v>10</v>
+        <v>309</v>
+      </c>
+      <c r="J126" s="3" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="127" spans="1:10" ht="32" x14ac:dyDescent="0.2">
       <c r="A127" s="1" t="s">
-        <v>212</v>
+        <v>314</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>213</v>
+        <v>323</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>214</v>
+        <v>324</v>
       </c>
       <c r="D127" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F127" s="1"/>
       <c r="G127" s="1"/>
       <c r="H127" s="1"/>
       <c r="I127" s="3" t="s">
-        <v>59</v>
+        <v>328</v>
       </c>
       <c r="J127" s="3" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="128" spans="1:10" ht="32" x14ac:dyDescent="0.2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="128" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A128" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="B128" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="C128" s="2" t="s">
-        <v>214</v>
+        <v>263</v>
+      </c>
+      <c r="C128" s="1" t="s">
+        <v>264</v>
       </c>
       <c r="D128" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F128" s="1"/>
       <c r="G128" s="1"/>
       <c r="H128" s="1"/>
       <c r="I128" s="3" t="s">
-        <v>216</v>
+        <v>268</v>
       </c>
       <c r="J128" s="3" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="129" spans="1:11" ht="32" x14ac:dyDescent="0.2">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="129" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A129" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="B129" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="C129" s="2" t="s">
-        <v>214</v>
+        <v>368</v>
       </c>
       <c r="D129" s="1">
         <v>4</v>
@@ -5385,82 +5511,55 @@
       <c r="G129" s="1"/>
       <c r="H129" s="1"/>
       <c r="I129" s="3" t="s">
-        <v>218</v>
+        <v>268</v>
       </c>
       <c r="J129" s="3" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="130" spans="1:11" ht="32" x14ac:dyDescent="0.2">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="130" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A130" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="B130" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="C130" s="2" t="s">
-        <v>173</v>
+        <v>263</v>
+      </c>
+      <c r="C130" s="1" t="s">
+        <v>264</v>
       </c>
       <c r="D130" s="1">
-        <v>1</v>
-      </c>
-      <c r="E130" s="1" t="s">
-        <v>489</v>
-      </c>
-      <c r="F130" s="2" t="s">
-        <v>485</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="F130" s="1"/>
+      <c r="G130" s="1"/>
+      <c r="H130" s="1"/>
       <c r="I130" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="J130" s="4" t="s">
-        <v>175</v>
-      </c>
-      <c r="K130" s="3" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="131" spans="1:11" ht="32" x14ac:dyDescent="0.2">
+        <v>267</v>
+      </c>
+      <c r="J130" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="131" spans="1:10" ht="32" x14ac:dyDescent="0.2">
       <c r="A131" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="B131" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="C131" s="2" t="s">
-        <v>173</v>
+        <v>368</v>
       </c>
       <c r="D131" s="1">
-        <v>2</v>
-      </c>
-      <c r="E131" s="1" t="s">
-        <v>489</v>
-      </c>
-      <c r="F131" s="2" t="s">
-        <v>481</v>
-      </c>
-      <c r="H131" s="2" t="s">
-        <v>482</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="F131" s="1"/>
+      <c r="G131" s="1"/>
+      <c r="H131" s="1"/>
       <c r="I131" s="3" t="s">
-        <v>176</v>
-      </c>
-      <c r="J131" s="3" t="s">
-        <v>177</v>
-      </c>
-      <c r="K131" s="3" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="132" spans="1:11" ht="32" x14ac:dyDescent="0.2">
+        <v>267</v>
+      </c>
+      <c r="J131" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="132" spans="1:10" ht="32" x14ac:dyDescent="0.2">
       <c r="A132" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="B132" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="C132" s="2" t="s">
-        <v>181</v>
+        <v>263</v>
+      </c>
+      <c r="C132" s="1" t="s">
+        <v>264</v>
       </c>
       <c r="D132" s="1">
         <v>1</v>
@@ -5469,67 +5568,52 @@
       <c r="G132" s="1"/>
       <c r="H132" s="1"/>
       <c r="I132" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="J132" s="3" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="133" spans="1:11" ht="32" x14ac:dyDescent="0.2">
+        <v>265</v>
+      </c>
+      <c r="J132" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="133" spans="1:10" ht="32" x14ac:dyDescent="0.2">
       <c r="A133" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="B133" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="C133" s="2" t="s">
-        <v>181</v>
+        <v>368</v>
       </c>
       <c r="D133" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F133" s="1"/>
       <c r="G133" s="1"/>
       <c r="H133" s="1"/>
       <c r="I133" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="J133" s="3" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="134" spans="1:11" ht="48" x14ac:dyDescent="0.2">
+        <v>265</v>
+      </c>
+      <c r="J133" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="134" spans="1:10" ht="32" x14ac:dyDescent="0.2">
       <c r="A134" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="B134" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="C134" s="2" t="s">
-        <v>179</v>
+        <v>263</v>
+      </c>
+      <c r="C134" s="1" t="s">
+        <v>264</v>
       </c>
       <c r="D134" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F134" s="1"/>
       <c r="G134" s="1"/>
       <c r="H134" s="1"/>
       <c r="I134" s="3" t="s">
-        <v>54</v>
+        <v>266</v>
       </c>
       <c r="J134" s="4" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="135" spans="1:11" ht="48" x14ac:dyDescent="0.2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="135" spans="1:10" ht="32" x14ac:dyDescent="0.2">
       <c r="A135" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="B135" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="C135" s="2" t="s">
-        <v>179</v>
+        <v>368</v>
       </c>
       <c r="D135" s="1">
         <v>2</v>
@@ -5538,535 +5622,615 @@
       <c r="G135" s="1"/>
       <c r="H135" s="1"/>
       <c r="I135" s="3" t="s">
-        <v>56</v>
+        <v>266</v>
       </c>
       <c r="J135" s="4" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="136" spans="1:11" ht="32" x14ac:dyDescent="0.2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="136" spans="1:10" ht="32" x14ac:dyDescent="0.2">
       <c r="A136" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="B136" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="C136" s="2" t="s">
-        <v>179</v>
+        <v>231</v>
+      </c>
+      <c r="C136" s="1" t="s">
+        <v>232</v>
       </c>
       <c r="D136" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F136" s="1"/>
       <c r="G136" s="1"/>
       <c r="H136" s="1"/>
       <c r="I136" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="J136" s="3" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="137" spans="1:11" ht="32" x14ac:dyDescent="0.2">
+        <v>233</v>
+      </c>
+      <c r="J136" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="137" spans="1:10" ht="32" x14ac:dyDescent="0.2">
       <c r="A137" s="1" t="s">
-        <v>171</v>
+        <v>45</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>178</v>
+        <v>103</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>179</v>
+        <v>104</v>
       </c>
       <c r="D137" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F137" s="1"/>
       <c r="G137" s="1"/>
       <c r="H137" s="1"/>
       <c r="I137" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="J137" s="3" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="138" spans="1:11" ht="32" x14ac:dyDescent="0.2">
+        <v>106</v>
+      </c>
+      <c r="J137" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="138" spans="1:10" ht="32" x14ac:dyDescent="0.2">
       <c r="A138" s="1" t="s">
-        <v>171</v>
+        <v>182</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>178</v>
+        <v>194</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>179</v>
+        <v>195</v>
       </c>
       <c r="D138" s="1">
-        <v>5</v>
-      </c>
-      <c r="E138" s="1" t="s">
-        <v>463</v>
-      </c>
-      <c r="F138" s="2" t="s">
-        <v>469</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="F138" s="1"/>
+      <c r="G138" s="1"/>
+      <c r="H138" s="1"/>
       <c r="I138" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="J138" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="K138" s="3" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="139" spans="1:11" ht="112" x14ac:dyDescent="0.2">
+        <v>197</v>
+      </c>
+      <c r="J138" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="139" spans="1:10" ht="32" x14ac:dyDescent="0.2">
       <c r="A139" s="1" t="s">
-        <v>369</v>
+        <v>4</v>
+      </c>
+      <c r="B139" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C139" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="D139" s="1">
-        <v>1</v>
-      </c>
-      <c r="E139" s="1" t="s">
-        <v>505</v>
-      </c>
-      <c r="F139" s="2" t="s">
-        <v>515</v>
-      </c>
-      <c r="G139" s="2" t="s">
-        <v>516</v>
-      </c>
-      <c r="H139" s="5" t="s">
-        <v>514</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="F139" s="1"/>
+      <c r="G139" s="1"/>
+      <c r="H139" s="1"/>
       <c r="I139" s="3" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="J139" s="3" t="s">
-        <v>223</v>
-      </c>
-      <c r="K139" s="4" t="s">
-        <v>513</v>
-      </c>
-    </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="140" spans="1:10" ht="32" x14ac:dyDescent="0.2">
       <c r="A140" s="1" t="s">
-        <v>369</v>
+        <v>4</v>
+      </c>
+      <c r="B140" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C140" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="D140" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F140" s="1"/>
       <c r="G140" s="1"/>
       <c r="H140" s="1"/>
       <c r="I140" s="3" t="s">
-        <v>218</v>
-      </c>
-      <c r="J140" s="3" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="141" spans="1:11" ht="32" x14ac:dyDescent="0.2">
+        <v>16</v>
+      </c>
+      <c r="J140" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="141" spans="1:10" ht="32" x14ac:dyDescent="0.2">
       <c r="A141" s="1" t="s">
-        <v>369</v>
+        <v>4</v>
+      </c>
+      <c r="B141" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C141" s="2" t="s">
+        <v>6</v>
       </c>
       <c r="D141" s="1">
-        <v>3</v>
-      </c>
-      <c r="E141" s="1" t="s">
-        <v>463</v>
-      </c>
-      <c r="F141" s="2" t="s">
-        <v>477</v>
-      </c>
-      <c r="G141" s="2" t="s">
-        <v>478</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="F141" s="1"/>
+      <c r="G141" s="1"/>
+      <c r="H141" s="1"/>
       <c r="I141" s="3" t="s">
-        <v>371</v>
-      </c>
-      <c r="J141" s="3" t="s">
-        <v>223</v>
-      </c>
-      <c r="K141" s="3" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="142" spans="1:11" ht="32" x14ac:dyDescent="0.2">
+        <v>12</v>
+      </c>
+      <c r="J141" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="142" spans="1:10" ht="32" x14ac:dyDescent="0.2">
       <c r="A142" s="1" t="s">
-        <v>369</v>
+        <v>212</v>
+      </c>
+      <c r="B142" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="C142" s="2" t="s">
+        <v>214</v>
       </c>
       <c r="D142" s="1">
         <v>4</v>
       </c>
-      <c r="E142" s="1" t="s">
-        <v>489</v>
-      </c>
-      <c r="F142" s="2" t="s">
-        <v>477</v>
-      </c>
-      <c r="G142" s="2" t="s">
-        <v>478</v>
-      </c>
+      <c r="F142" s="1"/>
+      <c r="G142" s="1"/>
+      <c r="H142" s="1"/>
       <c r="I142" s="3" t="s">
-        <v>372</v>
+        <v>218</v>
       </c>
       <c r="J142" s="3" t="s">
-        <v>223</v>
-      </c>
-      <c r="K142" s="3" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.2">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="143" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A143" s="1" t="s">
         <v>369</v>
       </c>
       <c r="D143" s="1">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F143" s="1"/>
       <c r="G143" s="1"/>
       <c r="H143" s="1"/>
       <c r="I143" s="3" t="s">
-        <v>373</v>
+        <v>218</v>
       </c>
       <c r="J143" s="3" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.2">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="144" spans="1:10" ht="32" x14ac:dyDescent="0.2">
       <c r="A144" s="1" t="s">
-        <v>369</v>
+        <v>45</v>
+      </c>
+      <c r="B144" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="C144" s="2" t="s">
+        <v>138</v>
       </c>
       <c r="D144" s="1">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F144" s="1"/>
       <c r="G144" s="1"/>
       <c r="H144" s="1"/>
       <c r="I144" s="3" t="s">
-        <v>374</v>
+        <v>140</v>
       </c>
       <c r="J144" s="3" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="145" spans="1:10" x14ac:dyDescent="0.2">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="145" spans="1:10" ht="32" x14ac:dyDescent="0.2">
       <c r="A145" s="1" t="s">
-        <v>369</v>
+        <v>45</v>
+      </c>
+      <c r="B145" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C145" s="2" t="s">
+        <v>84</v>
       </c>
       <c r="D145" s="1">
-        <v>7</v>
-      </c>
-      <c r="F145" s="1"/>
+        <v>1</v>
+      </c>
+      <c r="E145" s="1" t="s">
+        <v>505</v>
+      </c>
+      <c r="F145" s="2" t="s">
+        <v>541</v>
+      </c>
       <c r="G145" s="1"/>
       <c r="H145" s="1"/>
       <c r="I145" s="3" t="s">
-        <v>375</v>
+        <v>85</v>
       </c>
       <c r="J145" s="3" t="s">
-        <v>223</v>
+        <v>58</v>
       </c>
     </row>
     <row r="146" spans="1:10" ht="32" x14ac:dyDescent="0.2">
       <c r="A146" s="1" t="s">
-        <v>314</v>
+        <v>286</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>315</v>
+        <v>287</v>
       </c>
       <c r="C146" s="2" t="s">
-        <v>316</v>
+        <v>288</v>
       </c>
       <c r="D146" s="1">
-        <v>1</v>
-      </c>
-      <c r="F146" s="1"/>
+        <v>2</v>
+      </c>
+      <c r="E146" s="1" t="s">
+        <v>505</v>
+      </c>
+      <c r="F146" s="2" t="s">
+        <v>543</v>
+      </c>
       <c r="G146" s="1"/>
-      <c r="H146" s="1"/>
+      <c r="H146" s="6" t="s">
+        <v>544</v>
+      </c>
       <c r="I146" s="3" t="s">
-        <v>317</v>
-      </c>
-      <c r="J146" s="4" t="s">
-        <v>10</v>
+        <v>86</v>
+      </c>
+      <c r="J146" s="3" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="147" spans="1:10" ht="32" x14ac:dyDescent="0.2">
       <c r="A147" s="1" t="s">
-        <v>314</v>
+        <v>45</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>315</v>
+        <v>83</v>
       </c>
       <c r="C147" s="2" t="s">
-        <v>316</v>
+        <v>84</v>
       </c>
       <c r="D147" s="1">
         <v>2</v>
       </c>
-      <c r="F147" s="1"/>
+      <c r="E147" s="1" t="s">
+        <v>505</v>
+      </c>
+      <c r="F147" s="2" t="s">
+        <v>542</v>
+      </c>
       <c r="G147" s="1"/>
-      <c r="H147" s="1"/>
+      <c r="H147" s="6" t="s">
+        <v>544</v>
+      </c>
       <c r="I147" s="3" t="s">
-        <v>318</v>
-      </c>
-      <c r="J147" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="148" spans="1:10" ht="32" x14ac:dyDescent="0.2">
+        <v>86</v>
+      </c>
+      <c r="J147" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="148" spans="1:10" ht="80" x14ac:dyDescent="0.2">
       <c r="A148" s="1" t="s">
-        <v>314</v>
+        <v>4</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>315</v>
+        <v>14</v>
       </c>
       <c r="C148" s="2" t="s">
-        <v>316</v>
+        <v>15</v>
       </c>
       <c r="D148" s="1">
         <v>3</v>
       </c>
-      <c r="F148" s="1"/>
+      <c r="E148" s="1" t="s">
+        <v>505</v>
+      </c>
+      <c r="F148" s="2" t="s">
+        <v>545</v>
+      </c>
       <c r="G148" s="1"/>
-      <c r="H148" s="1"/>
+      <c r="H148" s="6" t="s">
+        <v>555</v>
+      </c>
       <c r="I148" s="3" t="s">
-        <v>319</v>
-      </c>
-      <c r="J148" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="149" spans="1:10" ht="32" x14ac:dyDescent="0.2">
+        <v>7</v>
+      </c>
+      <c r="J148" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="149" spans="1:10" ht="64" x14ac:dyDescent="0.2">
       <c r="A149" s="1" t="s">
-        <v>314</v>
+        <v>4</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>315</v>
+        <v>22</v>
       </c>
       <c r="C149" s="2" t="s">
-        <v>316</v>
+        <v>23</v>
       </c>
       <c r="D149" s="1">
+        <v>1</v>
+      </c>
+      <c r="E149" s="1" t="s">
+        <v>505</v>
+      </c>
+      <c r="F149" s="2" t="s">
+        <v>546</v>
+      </c>
+      <c r="G149" s="1"/>
+      <c r="H149" s="6" t="s">
+        <v>555</v>
+      </c>
+      <c r="I149" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="J149" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="150" spans="1:10" ht="80" x14ac:dyDescent="0.2">
+      <c r="A150" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F149" s="1"/>
-      <c r="G149" s="1"/>
-      <c r="H149" s="1"/>
-      <c r="I149" s="3" t="s">
-        <v>320</v>
-      </c>
-      <c r="J149" s="3" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="150" spans="1:10" ht="32" x14ac:dyDescent="0.2">
-      <c r="A150" s="1" t="s">
-        <v>314</v>
-      </c>
       <c r="B150" s="1" t="s">
-        <v>315</v>
+        <v>5</v>
       </c>
       <c r="C150" s="2" t="s">
-        <v>316</v>
+        <v>6</v>
       </c>
       <c r="D150" s="1">
-        <v>5</v>
-      </c>
-      <c r="F150" s="1"/>
+        <v>1</v>
+      </c>
+      <c r="E150" s="1" t="s">
+        <v>505</v>
+      </c>
+      <c r="F150" s="2" t="s">
+        <v>547</v>
+      </c>
       <c r="G150" s="1"/>
-      <c r="H150" s="1"/>
+      <c r="H150" s="6" t="s">
+        <v>555</v>
+      </c>
       <c r="I150" s="3" t="s">
-        <v>322</v>
-      </c>
-      <c r="J150" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="151" spans="1:10" ht="32" x14ac:dyDescent="0.2">
+        <v>7</v>
+      </c>
+      <c r="J150" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="151" spans="1:10" ht="64" x14ac:dyDescent="0.2">
       <c r="A151" s="1" t="s">
-        <v>314</v>
+        <v>4</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>329</v>
+        <v>27</v>
       </c>
       <c r="C151" s="2" t="s">
-        <v>330</v>
+        <v>28</v>
       </c>
       <c r="D151" s="1">
         <v>1</v>
       </c>
-      <c r="F151" s="1"/>
+      <c r="E151" s="1" t="s">
+        <v>505</v>
+      </c>
+      <c r="F151" s="2" t="s">
+        <v>548</v>
+      </c>
       <c r="G151" s="1"/>
-      <c r="H151" s="1"/>
+      <c r="H151" s="6" t="s">
+        <v>555</v>
+      </c>
       <c r="I151" s="3" t="s">
-        <v>331</v>
-      </c>
-      <c r="J151" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="152" spans="1:10" ht="32" x14ac:dyDescent="0.2">
+        <v>7</v>
+      </c>
+      <c r="J151" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="152" spans="1:10" ht="48" x14ac:dyDescent="0.2">
       <c r="A152" s="1" t="s">
-        <v>314</v>
+        <v>45</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>323</v>
+        <v>107</v>
       </c>
       <c r="C152" s="2" t="s">
-        <v>324</v>
+        <v>108</v>
       </c>
       <c r="D152" s="1">
         <v>1</v>
       </c>
-      <c r="F152" s="1"/>
+      <c r="E152" s="1" t="s">
+        <v>505</v>
+      </c>
+      <c r="F152" s="2" t="s">
+        <v>549</v>
+      </c>
       <c r="G152" s="1"/>
-      <c r="H152" s="1"/>
+      <c r="H152" s="6" t="s">
+        <v>554</v>
+      </c>
       <c r="I152" s="3" t="s">
-        <v>325</v>
-      </c>
-      <c r="J152" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="153" spans="1:10" ht="32" x14ac:dyDescent="0.2">
+        <v>7</v>
+      </c>
+      <c r="J152" s="3" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="153" spans="1:10" ht="48" x14ac:dyDescent="0.2">
       <c r="A153" s="1" t="s">
-        <v>314</v>
+        <v>45</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>323</v>
+        <v>110</v>
       </c>
       <c r="C153" s="2" t="s">
-        <v>324</v>
+        <v>111</v>
       </c>
       <c r="D153" s="1">
-        <v>2</v>
-      </c>
-      <c r="F153" s="1"/>
+        <v>1</v>
+      </c>
+      <c r="E153" s="1" t="s">
+        <v>505</v>
+      </c>
+      <c r="F153" s="2" t="s">
+        <v>550</v>
+      </c>
       <c r="G153" s="1"/>
-      <c r="H153" s="1"/>
+      <c r="H153" s="6" t="s">
+        <v>554</v>
+      </c>
       <c r="I153" s="3" t="s">
-        <v>326</v>
-      </c>
-      <c r="J153" s="4" t="s">
-        <v>10</v>
+        <v>7</v>
+      </c>
+      <c r="J153" s="3" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="154" spans="1:10" ht="32" x14ac:dyDescent="0.2">
       <c r="A154" s="1" t="s">
-        <v>314</v>
+        <v>45</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>323</v>
+        <v>117</v>
       </c>
       <c r="C154" s="2" t="s">
-        <v>324</v>
+        <v>118</v>
       </c>
       <c r="D154" s="1">
-        <v>3</v>
-      </c>
-      <c r="F154" s="1"/>
+        <v>1</v>
+      </c>
+      <c r="E154" s="1" t="s">
+        <v>505</v>
+      </c>
+      <c r="F154" s="2" t="s">
+        <v>551</v>
+      </c>
       <c r="G154" s="1"/>
       <c r="H154" s="1"/>
       <c r="I154" s="3" t="s">
-        <v>327</v>
+        <v>7</v>
       </c>
       <c r="J154" s="3" t="s">
-        <v>321</v>
+        <v>119</v>
       </c>
     </row>
     <row r="155" spans="1:10" ht="32" x14ac:dyDescent="0.2">
       <c r="A155" s="1" t="s">
-        <v>314</v>
-      </c>
-      <c r="B155" s="1" t="s">
-        <v>323</v>
-      </c>
-      <c r="C155" s="2" t="s">
-        <v>324</v>
+        <v>396</v>
       </c>
       <c r="D155" s="1">
-        <v>4</v>
-      </c>
-      <c r="F155" s="1"/>
+        <v>1</v>
+      </c>
+      <c r="E155" s="1" t="s">
+        <v>505</v>
+      </c>
+      <c r="F155" s="2" t="s">
+        <v>552</v>
+      </c>
       <c r="G155" s="1"/>
       <c r="H155" s="1"/>
       <c r="I155" s="3" t="s">
-        <v>328</v>
+        <v>7</v>
       </c>
       <c r="J155" s="3" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="156" spans="1:10" ht="32" x14ac:dyDescent="0.2">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="156" spans="1:10" ht="80" x14ac:dyDescent="0.2">
       <c r="A156" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="B156" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="C156" s="2" t="s">
-        <v>229</v>
+        <v>382</v>
       </c>
       <c r="D156" s="1">
         <v>1</v>
       </c>
       <c r="E156" s="1" t="s">
-        <v>462</v>
+        <v>505</v>
       </c>
       <c r="F156" s="2" t="s">
-        <v>461</v>
+        <v>553</v>
+      </c>
+      <c r="G156" s="1"/>
+      <c r="H156" s="6" t="s">
+        <v>554</v>
       </c>
       <c r="I156" s="3" t="s">
-        <v>230</v>
-      </c>
-      <c r="J156" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="J156" s="3" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="157" spans="1:10" ht="64" x14ac:dyDescent="0.2">
+      <c r="A157" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B157" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="C157" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="D157" s="1">
+        <v>1</v>
+      </c>
+      <c r="E157" s="1" t="s">
+        <v>505</v>
+      </c>
+      <c r="F157" s="2" t="s">
+        <v>556</v>
+      </c>
+      <c r="G157" s="1"/>
+      <c r="H157" s="6" t="s">
+        <v>554</v>
+      </c>
+      <c r="I157" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="J157" s="4" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="157" spans="1:10" ht="96" x14ac:dyDescent="0.2">
-      <c r="A157" s="1" t="s">
-        <v>398</v>
-      </c>
-      <c r="D157" s="1">
-        <v>1</v>
-      </c>
-      <c r="E157" s="1" t="s">
-        <v>500</v>
-      </c>
-      <c r="F157" s="2" t="s">
-        <v>517</v>
-      </c>
-      <c r="G157" s="2" t="s">
-        <v>518</v>
-      </c>
-      <c r="I157" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="J157" s="3" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="158" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:10" ht="48" x14ac:dyDescent="0.2">
       <c r="A158" s="1" t="s">
-        <v>378</v>
+        <v>386</v>
       </c>
       <c r="D158" s="1">
         <v>1</v>
       </c>
-      <c r="F158" s="1"/>
+      <c r="E158" s="1" t="s">
+        <v>505</v>
+      </c>
+      <c r="F158" s="2" t="s">
+        <v>557</v>
+      </c>
       <c r="G158" s="1"/>
-      <c r="H158" s="1"/>
+      <c r="H158" s="6" t="s">
+        <v>554</v>
+      </c>
       <c r="I158" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="J158" s="3" t="s">
-        <v>379</v>
+        <v>387</v>
+      </c>
+      <c r="J158" s="4" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="159" spans="1:10" ht="32" x14ac:dyDescent="0.2">
       <c r="A159" s="1" t="s">
-        <v>368</v>
+        <v>45</v>
+      </c>
+      <c r="B159" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="C159" s="2" t="s">
+        <v>157</v>
       </c>
       <c r="D159" s="1">
         <v>1</v>
@@ -6075,126 +6239,159 @@
       <c r="G159" s="1"/>
       <c r="H159" s="1"/>
       <c r="I159" s="3" t="s">
-        <v>265</v>
-      </c>
-      <c r="J159" s="4" t="s">
-        <v>13</v>
+        <v>158</v>
+      </c>
+      <c r="J159" s="3" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="160" spans="1:10" ht="32" x14ac:dyDescent="0.2">
       <c r="A160" s="1" t="s">
-        <v>368</v>
+        <v>212</v>
+      </c>
+      <c r="B160" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="C160" s="2" t="s">
+        <v>221</v>
       </c>
       <c r="D160" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F160" s="1"/>
       <c r="G160" s="1"/>
       <c r="H160" s="1"/>
       <c r="I160" s="3" t="s">
-        <v>266</v>
-      </c>
-      <c r="J160" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="161" spans="1:11" ht="32" x14ac:dyDescent="0.2">
+        <v>222</v>
+      </c>
+      <c r="J160" s="3" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="161" spans="1:10" ht="32" x14ac:dyDescent="0.2">
       <c r="A161" s="1" t="s">
-        <v>368</v>
+        <v>212</v>
+      </c>
+      <c r="B161" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="C161" s="2" t="s">
+        <v>225</v>
       </c>
       <c r="D161" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F161" s="1"/>
       <c r="G161" s="1"/>
       <c r="H161" s="1"/>
       <c r="I161" s="3" t="s">
-        <v>267</v>
+        <v>215</v>
       </c>
       <c r="J161" s="4" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:10" ht="32" x14ac:dyDescent="0.2">
       <c r="A162" s="1" t="s">
-        <v>368</v>
+        <v>212</v>
+      </c>
+      <c r="B162" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="C162" s="2" t="s">
+        <v>214</v>
       </c>
       <c r="D162" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F162" s="1"/>
       <c r="G162" s="1"/>
       <c r="H162" s="1"/>
       <c r="I162" s="3" t="s">
-        <v>268</v>
-      </c>
-      <c r="J162" s="3" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="163" spans="1:11" ht="80" x14ac:dyDescent="0.2">
+        <v>215</v>
+      </c>
+      <c r="J162" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="163" spans="1:10" ht="32" x14ac:dyDescent="0.2">
       <c r="A163" s="1" t="s">
-        <v>400</v>
+        <v>286</v>
+      </c>
+      <c r="B163" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="C163" s="2" t="s">
+        <v>288</v>
       </c>
       <c r="D163" s="1">
-        <v>1</v>
-      </c>
-      <c r="E163" s="1" t="s">
-        <v>505</v>
-      </c>
-      <c r="F163" s="2" t="s">
-        <v>519</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="F163" s="1"/>
+      <c r="G163" s="1"/>
+      <c r="H163" s="1"/>
       <c r="I163" s="3" t="s">
-        <v>25</v>
+        <v>59</v>
       </c>
       <c r="J163" s="3" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="164" spans="1:11" ht="64" x14ac:dyDescent="0.2">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="164" spans="1:10" ht="32" x14ac:dyDescent="0.2">
       <c r="A164" s="1" t="s">
-        <v>392</v>
+        <v>45</v>
+      </c>
+      <c r="B164" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C164" s="2" t="s">
+        <v>84</v>
       </c>
       <c r="D164" s="1">
-        <v>1</v>
-      </c>
-      <c r="E164" s="1" t="s">
-        <v>505</v>
-      </c>
-      <c r="F164" s="2" t="s">
-        <v>521</v>
-      </c>
-      <c r="H164" s="5" t="s">
-        <v>520</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="F164" s="1"/>
+      <c r="G164" s="1"/>
+      <c r="H164" s="1"/>
       <c r="I164" s="3" t="s">
-        <v>25</v>
+        <v>59</v>
       </c>
       <c r="J164" s="3" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.2">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="165" spans="1:10" ht="32" x14ac:dyDescent="0.2">
       <c r="A165" s="1" t="s">
-        <v>416</v>
+        <v>45</v>
+      </c>
+      <c r="B165" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C165" s="2" t="s">
+        <v>69</v>
       </c>
       <c r="D165" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F165" s="1"/>
       <c r="G165" s="1"/>
       <c r="H165" s="1"/>
       <c r="I165" s="3" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="J165" s="3" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.2">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="166" spans="1:10" ht="32" x14ac:dyDescent="0.2">
       <c r="A166" s="1" t="s">
-        <v>416</v>
+        <v>45</v>
+      </c>
+      <c r="B166" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C166" s="2" t="s">
+        <v>89</v>
       </c>
       <c r="D166" s="1">
         <v>2</v>
@@ -6203,261 +6400,297 @@
       <c r="G166" s="1"/>
       <c r="H166" s="1"/>
       <c r="I166" s="3" t="s">
-        <v>155</v>
+        <v>59</v>
       </c>
       <c r="J166" s="3" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="167" spans="1:11" ht="32" x14ac:dyDescent="0.2">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="167" spans="1:10" ht="32" x14ac:dyDescent="0.2">
       <c r="A167" s="1" t="s">
-        <v>416</v>
+        <v>45</v>
+      </c>
+      <c r="B167" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C167" s="2" t="s">
+        <v>93</v>
       </c>
       <c r="D167" s="1">
         <v>3</v>
       </c>
-      <c r="E167" s="1" t="s">
-        <v>489</v>
-      </c>
-      <c r="F167" s="2" t="s">
-        <v>483</v>
-      </c>
-      <c r="H167" s="5" t="s">
-        <v>511</v>
-      </c>
+      <c r="F167" s="1"/>
+      <c r="G167" s="1"/>
+      <c r="H167" s="1"/>
       <c r="I167" s="3" t="s">
-        <v>176</v>
+        <v>59</v>
       </c>
       <c r="J167" s="3" t="s">
-        <v>417</v>
-      </c>
-      <c r="K167" s="3" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="168" spans="1:11" ht="64" x14ac:dyDescent="0.2">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="168" spans="1:10" ht="32" x14ac:dyDescent="0.2">
       <c r="A168" s="1" t="s">
-        <v>394</v>
+        <v>45</v>
+      </c>
+      <c r="B168" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C168" s="2" t="s">
+        <v>53</v>
       </c>
       <c r="D168" s="1">
-        <v>1</v>
-      </c>
-      <c r="E168" s="1" t="s">
-        <v>463</v>
-      </c>
-      <c r="F168" s="2" t="s">
-        <v>488</v>
-      </c>
-      <c r="G168" s="2" t="s">
-        <v>476</v>
-      </c>
-      <c r="H168" s="2" t="s">
-        <v>474</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="F168" s="1"/>
+      <c r="G168" s="1"/>
+      <c r="H168" s="1"/>
       <c r="I168" s="3" t="s">
-        <v>99</v>
+        <v>59</v>
       </c>
       <c r="J168" s="3" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="169" spans="1:11" x14ac:dyDescent="0.2">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="169" spans="1:10" ht="32" x14ac:dyDescent="0.2">
       <c r="A169" s="1" t="s">
-        <v>394</v>
+        <v>45</v>
+      </c>
+      <c r="B169" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="C169" s="2" t="s">
+        <v>118</v>
       </c>
       <c r="D169" s="1">
         <v>2</v>
       </c>
-      <c r="E169" s="1" t="s">
-        <v>489</v>
-      </c>
-      <c r="F169" s="2" t="s">
-        <v>488</v>
-      </c>
+      <c r="F169" s="1"/>
+      <c r="G169" s="1"/>
+      <c r="H169" s="1"/>
       <c r="I169" s="3" t="s">
-        <v>101</v>
+        <v>59</v>
       </c>
       <c r="J169" s="3" t="s">
-        <v>395</v>
-      </c>
-      <c r="K169" s="3" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.2">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="170" spans="1:10" ht="32" x14ac:dyDescent="0.2">
       <c r="A170" s="1" t="s">
-        <v>436</v>
+        <v>45</v>
+      </c>
+      <c r="B170" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C170" s="2" t="s">
+        <v>77</v>
       </c>
       <c r="D170" s="1">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F170" s="1"/>
       <c r="G170" s="1"/>
       <c r="H170" s="1"/>
       <c r="I170" s="3" t="s">
-        <v>419</v>
+        <v>59</v>
       </c>
       <c r="J170" s="3" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.2">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="171" spans="1:10" ht="32" x14ac:dyDescent="0.2">
       <c r="A171" s="1" t="s">
-        <v>411</v>
+        <v>45</v>
+      </c>
+      <c r="B171" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C171" s="2" t="s">
+        <v>73</v>
       </c>
       <c r="D171" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F171" s="1"/>
       <c r="G171" s="1"/>
       <c r="H171" s="1"/>
       <c r="I171" s="3" t="s">
-        <v>20</v>
+        <v>59</v>
       </c>
       <c r="J171" s="3" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.2">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="172" spans="1:10" ht="32" x14ac:dyDescent="0.2">
       <c r="A172" s="1" t="s">
-        <v>411</v>
+        <v>45</v>
+      </c>
+      <c r="B172" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="C172" s="2" t="s">
+        <v>144</v>
       </c>
       <c r="D172" s="1">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="F172" s="1"/>
       <c r="G172" s="1"/>
       <c r="H172" s="1"/>
       <c r="I172" s="3" t="s">
-        <v>410</v>
+        <v>59</v>
       </c>
       <c r="J172" s="3" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.2">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="173" spans="1:10" ht="32" x14ac:dyDescent="0.2">
       <c r="A173" s="1" t="s">
-        <v>413</v>
+        <v>212</v>
+      </c>
+      <c r="B173" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="C173" s="2" t="s">
+        <v>221</v>
       </c>
       <c r="D173" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F173" s="1"/>
       <c r="G173" s="1"/>
       <c r="H173" s="1"/>
       <c r="I173" s="3" t="s">
-        <v>414</v>
+        <v>59</v>
       </c>
       <c r="J173" s="3" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="174" spans="1:11" ht="96" x14ac:dyDescent="0.2">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="174" spans="1:10" ht="32" x14ac:dyDescent="0.2">
       <c r="A174" s="1" t="s">
-        <v>404</v>
+        <v>212</v>
+      </c>
+      <c r="B174" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="C174" s="2" t="s">
+        <v>214</v>
       </c>
       <c r="D174" s="1">
-        <v>1</v>
-      </c>
-      <c r="E174" s="1" t="s">
-        <v>447</v>
-      </c>
-      <c r="F174" s="2" t="s">
-        <v>460</v>
-      </c>
-      <c r="G174" s="2" t="s">
-        <v>459</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="F174" s="1"/>
+      <c r="G174" s="1"/>
+      <c r="H174" s="1"/>
       <c r="I174" s="3" t="s">
-        <v>405</v>
+        <v>59</v>
       </c>
       <c r="J174" s="3" t="s">
-        <v>406</v>
-      </c>
-      <c r="K174" s="3" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="175" spans="1:11" ht="64" x14ac:dyDescent="0.2">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="175" spans="1:10" ht="32" x14ac:dyDescent="0.2">
       <c r="A175" s="1" t="s">
-        <v>404</v>
+        <v>171</v>
+      </c>
+      <c r="B175" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="C175" s="2" t="s">
+        <v>181</v>
       </c>
       <c r="D175" s="1">
         <v>2</v>
       </c>
-      <c r="E175" s="1" t="s">
-        <v>447</v>
-      </c>
-      <c r="F175" s="2" t="s">
-        <v>455</v>
-      </c>
-      <c r="G175" s="2" t="s">
-        <v>454</v>
-      </c>
+      <c r="F175" s="1"/>
+      <c r="G175" s="1"/>
+      <c r="H175" s="1"/>
       <c r="I175" s="3" t="s">
-        <v>125</v>
+        <v>59</v>
       </c>
       <c r="J175" s="3" t="s">
-        <v>407</v>
-      </c>
-      <c r="K175" s="3" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="176" spans="1:11" x14ac:dyDescent="0.2">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="176" spans="1:10" ht="32" x14ac:dyDescent="0.2">
       <c r="A176" s="1" t="s">
-        <v>404</v>
+        <v>171</v>
+      </c>
+      <c r="B176" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="C176" s="2" t="s">
+        <v>179</v>
       </c>
       <c r="D176" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F176" s="1"/>
       <c r="G176" s="1"/>
       <c r="H176" s="1"/>
       <c r="I176" s="3" t="s">
-        <v>408</v>
+        <v>59</v>
       </c>
       <c r="J176" s="3" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="177" spans="1:11" x14ac:dyDescent="0.2">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="177" spans="1:10" ht="32" x14ac:dyDescent="0.2">
       <c r="A177" s="1" t="s">
-        <v>404</v>
+        <v>45</v>
+      </c>
+      <c r="B177" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C177" s="2" t="s">
+        <v>69</v>
       </c>
       <c r="D177" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F177" s="1"/>
       <c r="G177" s="1"/>
       <c r="H177" s="1"/>
       <c r="I177" s="3" t="s">
-        <v>283</v>
+        <v>70</v>
       </c>
       <c r="J177" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="178" spans="1:11" x14ac:dyDescent="0.2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="178" spans="1:10" ht="32" x14ac:dyDescent="0.2">
       <c r="A178" s="1" t="s">
-        <v>404</v>
+        <v>45</v>
+      </c>
+      <c r="B178" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C178" s="2" t="s">
+        <v>89</v>
       </c>
       <c r="D178" s="1">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F178" s="1"/>
       <c r="G178" s="1"/>
       <c r="H178" s="1"/>
       <c r="I178" s="3" t="s">
-        <v>410</v>
+        <v>70</v>
       </c>
       <c r="J178" s="3" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="179" spans="1:11" ht="32" x14ac:dyDescent="0.2">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="179" spans="1:10" ht="32" x14ac:dyDescent="0.2">
       <c r="A179" s="1" t="s">
-        <v>386</v>
+        <v>171</v>
+      </c>
+      <c r="B179" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="C179" s="2" t="s">
+        <v>181</v>
       </c>
       <c r="D179" s="1">
         <v>1</v>
@@ -6466,15 +6699,15 @@
       <c r="G179" s="1"/>
       <c r="H179" s="1"/>
       <c r="I179" s="3" t="s">
-        <v>387</v>
-      </c>
-      <c r="J179" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="180" spans="1:11" x14ac:dyDescent="0.2">
+        <v>70</v>
+      </c>
+      <c r="J179" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="180" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A180" s="1" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="D180" s="1">
         <v>1</v>
@@ -6483,38 +6716,44 @@
       <c r="G180" s="1"/>
       <c r="H180" s="1"/>
       <c r="I180" s="3" t="s">
-        <v>419</v>
+        <v>70</v>
       </c>
       <c r="J180" s="3" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="181" spans="1:11" ht="112" x14ac:dyDescent="0.2">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="181" spans="1:10" ht="48" x14ac:dyDescent="0.2">
       <c r="A181" s="1" t="s">
-        <v>425</v>
+        <v>45</v>
+      </c>
+      <c r="B181" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C181" s="2" t="s">
+        <v>53</v>
       </c>
       <c r="D181" s="1">
-        <v>1</v>
-      </c>
-      <c r="E181" s="1" t="s">
-        <v>538</v>
-      </c>
-      <c r="F181" s="2" t="s">
-        <v>523</v>
-      </c>
-      <c r="H181" s="5" t="s">
-        <v>522</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="F181" s="1"/>
+      <c r="G181" s="1"/>
+      <c r="H181" s="1"/>
       <c r="I181" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="J181" s="3" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="182" spans="1:11" x14ac:dyDescent="0.2">
+        <v>56</v>
+      </c>
+      <c r="J181" s="4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="182" spans="1:10" ht="48" x14ac:dyDescent="0.2">
       <c r="A182" s="1" t="s">
-        <v>425</v>
+        <v>171</v>
+      </c>
+      <c r="B182" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="C182" s="2" t="s">
+        <v>179</v>
       </c>
       <c r="D182" s="1">
         <v>2</v>
@@ -6523,52 +6762,67 @@
       <c r="G182" s="1"/>
       <c r="H182" s="1"/>
       <c r="I182" s="3" t="s">
-        <v>270</v>
-      </c>
-      <c r="J182" s="3" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="183" spans="1:11" x14ac:dyDescent="0.2">
+        <v>56</v>
+      </c>
+      <c r="J182" s="4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="183" spans="1:10" ht="48" x14ac:dyDescent="0.2">
       <c r="A183" s="1" t="s">
-        <v>425</v>
+        <v>45</v>
+      </c>
+      <c r="B183" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C183" s="2" t="s">
+        <v>53</v>
       </c>
       <c r="D183" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F183" s="1"/>
       <c r="G183" s="1"/>
       <c r="H183" s="1"/>
       <c r="I183" s="3" t="s">
-        <v>427</v>
-      </c>
-      <c r="J183" s="3" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="184" spans="1:11" ht="64" x14ac:dyDescent="0.2">
+        <v>54</v>
+      </c>
+      <c r="J183" s="4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="184" spans="1:10" ht="48" x14ac:dyDescent="0.2">
       <c r="A184" s="1" t="s">
-        <v>423</v>
+        <v>171</v>
+      </c>
+      <c r="B184" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="C184" s="2" t="s">
+        <v>179</v>
       </c>
       <c r="D184" s="1">
         <v>1</v>
       </c>
-      <c r="E184" s="1" t="s">
-        <v>538</v>
-      </c>
-      <c r="F184" s="2" t="s">
-        <v>523</v>
-      </c>
+      <c r="F184" s="1"/>
+      <c r="G184" s="1"/>
+      <c r="H184" s="1"/>
       <c r="I184" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="J184" s="3" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="185" spans="1:11" x14ac:dyDescent="0.2">
+        <v>54</v>
+      </c>
+      <c r="J184" s="4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="185" spans="1:10" ht="32" x14ac:dyDescent="0.2">
       <c r="A185" s="1" t="s">
-        <v>396</v>
+        <v>45</v>
+      </c>
+      <c r="B185" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C185" s="2" t="s">
+        <v>64</v>
       </c>
       <c r="D185" s="1">
         <v>1</v>
@@ -6577,175 +6831,205 @@
       <c r="G185" s="1"/>
       <c r="H185" s="1"/>
       <c r="I185" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="J185" s="3" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="186" spans="1:11" x14ac:dyDescent="0.2">
+        <v>65</v>
+      </c>
+      <c r="J185" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="186" spans="1:10" ht="32" x14ac:dyDescent="0.2">
       <c r="A186" s="1" t="s">
-        <v>396</v>
+        <v>45</v>
+      </c>
+      <c r="B186" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C186" s="2" t="s">
+        <v>53</v>
       </c>
       <c r="D186" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F186" s="1"/>
       <c r="G186" s="1"/>
       <c r="H186" s="1"/>
       <c r="I186" s="3" t="s">
-        <v>74</v>
+        <v>57</v>
       </c>
       <c r="J186" s="3" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="187" spans="1:11" ht="112" x14ac:dyDescent="0.2">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="187" spans="1:10" ht="32" x14ac:dyDescent="0.2">
       <c r="A187" s="1" t="s">
-        <v>402</v>
+        <v>171</v>
+      </c>
+      <c r="B187" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="C187" s="2" t="s">
+        <v>179</v>
       </c>
       <c r="D187" s="1">
-        <v>1</v>
-      </c>
-      <c r="E187" s="1" t="s">
-        <v>500</v>
-      </c>
-      <c r="F187" s="2" t="s">
-        <v>526</v>
-      </c>
-      <c r="G187" s="2" t="s">
-        <v>527</v>
-      </c>
-      <c r="H187" s="5" t="s">
-        <v>528</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="F187" s="1"/>
+      <c r="G187" s="1"/>
+      <c r="H187" s="1"/>
       <c r="I187" s="3" t="s">
-        <v>25</v>
+        <v>57</v>
       </c>
       <c r="J187" s="3" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="188" spans="1:11" x14ac:dyDescent="0.2">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="188" spans="1:10" ht="32" x14ac:dyDescent="0.2">
       <c r="A188" s="1" t="s">
-        <v>380</v>
+        <v>45</v>
+      </c>
+      <c r="B188" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="C188" s="2" t="s">
+        <v>160</v>
       </c>
       <c r="D188" s="1">
         <v>1</v>
       </c>
-      <c r="E188" s="1" t="s">
-        <v>463</v>
-      </c>
-      <c r="F188" s="2" t="s">
-        <v>479</v>
-      </c>
+      <c r="F188" s="1"/>
+      <c r="G188" s="1"/>
+      <c r="H188" s="1"/>
       <c r="I188" s="3" t="s">
-        <v>371</v>
+        <v>161</v>
       </c>
       <c r="J188" s="3" t="s">
-        <v>381</v>
-      </c>
-      <c r="K188" s="3" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="189" spans="1:11" x14ac:dyDescent="0.2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="189" spans="1:10" ht="32" x14ac:dyDescent="0.2">
       <c r="A189" s="1" t="s">
-        <v>380</v>
+        <v>45</v>
+      </c>
+      <c r="B189" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="C189" s="2" t="s">
+        <v>160</v>
       </c>
       <c r="D189" s="1">
         <v>2</v>
       </c>
-      <c r="E189" s="1" t="s">
-        <v>489</v>
-      </c>
-      <c r="F189" s="2" t="s">
-        <v>479</v>
-      </c>
+      <c r="F189" s="1"/>
+      <c r="G189" s="1"/>
+      <c r="H189" s="1"/>
       <c r="I189" s="3" t="s">
-        <v>372</v>
+        <v>161</v>
       </c>
       <c r="J189" s="3" t="s">
-        <v>381</v>
-      </c>
-      <c r="K189" s="3" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="190" spans="1:11" x14ac:dyDescent="0.2">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="190" spans="1:10" ht="32" x14ac:dyDescent="0.2">
       <c r="A190" s="1" t="s">
-        <v>380</v>
+        <v>45</v>
+      </c>
+      <c r="B190" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C190" s="2" t="s">
+        <v>77</v>
       </c>
       <c r="D190" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F190" s="1"/>
       <c r="G190" s="1"/>
       <c r="H190" s="1"/>
       <c r="I190" s="3" t="s">
-        <v>373</v>
+        <v>81</v>
       </c>
       <c r="J190" s="3" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="191" spans="1:11" x14ac:dyDescent="0.2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="191" spans="1:10" ht="32" x14ac:dyDescent="0.2">
       <c r="A191" s="1" t="s">
-        <v>380</v>
+        <v>45</v>
+      </c>
+      <c r="B191" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C191" s="2" t="s">
+        <v>77</v>
       </c>
       <c r="D191" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F191" s="1"/>
       <c r="G191" s="1"/>
       <c r="H191" s="1"/>
       <c r="I191" s="3" t="s">
-        <v>374</v>
+        <v>78</v>
       </c>
       <c r="J191" s="3" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="192" spans="1:11" x14ac:dyDescent="0.2">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="192" spans="1:10" ht="32" x14ac:dyDescent="0.2">
       <c r="A192" s="1" t="s">
-        <v>380</v>
+        <v>45</v>
+      </c>
+      <c r="B192" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C192" s="2" t="s">
+        <v>77</v>
       </c>
       <c r="D192" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F192" s="1"/>
       <c r="G192" s="1"/>
       <c r="H192" s="1"/>
       <c r="I192" s="3" t="s">
-        <v>375</v>
+        <v>80</v>
       </c>
       <c r="J192" s="3" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="193" spans="1:10" x14ac:dyDescent="0.2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="193" spans="1:10" ht="32" x14ac:dyDescent="0.2">
       <c r="A193" s="1" t="s">
-        <v>429</v>
+        <v>45</v>
+      </c>
+      <c r="B193" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C193" s="2" t="s">
+        <v>77</v>
       </c>
       <c r="D193" s="1">
-        <v>1</v>
-      </c>
-      <c r="E193" s="1" t="s">
-        <v>538</v>
-      </c>
-      <c r="F193" s="2" t="s">
-        <v>539</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="F193" s="1"/>
+      <c r="G193" s="1"/>
+      <c r="H193" s="1"/>
       <c r="I193" s="3" t="s">
-        <v>25</v>
+        <v>79</v>
       </c>
       <c r="J193" s="3" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="194" spans="1:10" x14ac:dyDescent="0.2">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="194" spans="1:10" ht="32" x14ac:dyDescent="0.2">
       <c r="A194" s="1" t="s">
-        <v>382</v>
+        <v>45</v>
+      </c>
+      <c r="B194" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C194" s="2" t="s">
+        <v>73</v>
       </c>
       <c r="D194" s="1">
         <v>1</v>
@@ -6754,15 +7038,15 @@
       <c r="G194" s="1"/>
       <c r="H194" s="1"/>
       <c r="I194" s="3" t="s">
-        <v>7</v>
+        <v>74</v>
       </c>
       <c r="J194" s="3" t="s">
-        <v>383</v>
+        <v>75</v>
       </c>
     </row>
     <row r="195" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A195" s="1" t="s">
-        <v>382</v>
+        <v>396</v>
       </c>
       <c r="D195" s="1">
         <v>2</v>
@@ -6771,75 +7055,81 @@
       <c r="G195" s="1"/>
       <c r="H195" s="1"/>
       <c r="I195" s="3" t="s">
-        <v>384</v>
+        <v>74</v>
       </c>
       <c r="J195" s="3" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="196" spans="1:10" x14ac:dyDescent="0.2">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="196" spans="1:10" ht="32" x14ac:dyDescent="0.2">
       <c r="A196" s="1" t="s">
-        <v>382</v>
+        <v>45</v>
+      </c>
+      <c r="B196" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C196" s="2" t="s">
+        <v>93</v>
       </c>
       <c r="D196" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F196" s="1"/>
       <c r="G196" s="1"/>
       <c r="H196" s="1"/>
       <c r="I196" s="3" t="s">
-        <v>385</v>
+        <v>95</v>
       </c>
       <c r="J196" s="3" t="s">
-        <v>58</v>
+        <v>96</v>
       </c>
     </row>
     <row r="197" spans="1:10" ht="32" x14ac:dyDescent="0.2">
       <c r="A197" s="1" t="s">
-        <v>431</v>
+        <v>202</v>
+      </c>
+      <c r="B197" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="C197" s="2" t="s">
+        <v>207</v>
       </c>
       <c r="D197" s="1">
         <v>1</v>
       </c>
-      <c r="E197" s="1" t="s">
-        <v>537</v>
-      </c>
-      <c r="F197" s="2" t="s">
-        <v>530</v>
-      </c>
-      <c r="H197" s="5" t="s">
-        <v>529</v>
-      </c>
+      <c r="F197" s="1"/>
+      <c r="G197" s="1"/>
+      <c r="H197" s="1"/>
       <c r="I197" s="3" t="s">
-        <v>25</v>
+        <v>208</v>
       </c>
       <c r="J197" s="3" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="198" spans="1:10" ht="32" x14ac:dyDescent="0.2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="198" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A198" s="1" t="s">
-        <v>388</v>
+        <v>263</v>
+      </c>
+      <c r="C198" s="1" t="s">
+        <v>264</v>
       </c>
       <c r="D198" s="1">
-        <v>1</v>
-      </c>
-      <c r="E198" s="1" t="s">
-        <v>505</v>
-      </c>
-      <c r="F198" s="2" t="s">
-        <v>531</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="F198" s="1"/>
+      <c r="G198" s="1"/>
+      <c r="H198" s="1"/>
       <c r="I198" s="3" t="s">
-        <v>25</v>
+        <v>270</v>
       </c>
       <c r="J198" s="3" t="s">
-        <v>26</v>
+        <v>271</v>
       </c>
     </row>
     <row r="199" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A199" s="1" t="s">
-        <v>388</v>
+        <v>425</v>
       </c>
       <c r="D199" s="1">
         <v>2</v>
@@ -6848,440 +7138,422 @@
       <c r="G199" s="1"/>
       <c r="H199" s="1"/>
       <c r="I199" s="3" t="s">
-        <v>389</v>
+        <v>270</v>
       </c>
       <c r="J199" s="3" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="200" spans="1:10" x14ac:dyDescent="0.2">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="200" spans="1:10" ht="32" x14ac:dyDescent="0.2">
       <c r="A200" s="1" t="s">
-        <v>388</v>
+        <v>45</v>
+      </c>
+      <c r="B200" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="C200" s="2" t="s">
+        <v>144</v>
       </c>
       <c r="D200" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F200" s="1"/>
       <c r="G200" s="1"/>
       <c r="H200" s="1"/>
       <c r="I200" s="3" t="s">
-        <v>391</v>
+        <v>145</v>
       </c>
       <c r="J200" s="3" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="201" spans="1:10" x14ac:dyDescent="0.2">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="201" spans="1:10" ht="32" x14ac:dyDescent="0.2">
       <c r="A201" s="1" t="s">
-        <v>421</v>
+        <v>45</v>
+      </c>
+      <c r="B201" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="C201" s="2" t="s">
+        <v>144</v>
       </c>
       <c r="D201" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F201" s="1"/>
       <c r="G201" s="1"/>
       <c r="H201" s="1"/>
       <c r="I201" s="3" t="s">
-        <v>419</v>
+        <v>146</v>
       </c>
       <c r="J201" s="3" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="202" spans="1:10" x14ac:dyDescent="0.2">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="202" spans="1:10" ht="32" x14ac:dyDescent="0.2">
       <c r="A202" s="1" t="s">
-        <v>438</v>
+        <v>45</v>
+      </c>
+      <c r="B202" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="C202" s="2" t="s">
+        <v>144</v>
       </c>
       <c r="D202" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F202" s="1"/>
       <c r="G202" s="1"/>
       <c r="H202" s="1"/>
       <c r="I202" s="3" t="s">
-        <v>439</v>
+        <v>147</v>
       </c>
       <c r="J202" s="3" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="203" spans="1:10" x14ac:dyDescent="0.2">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="203" spans="1:10" ht="32" x14ac:dyDescent="0.2">
       <c r="A203" s="1" t="s">
-        <v>441</v>
+        <v>45</v>
+      </c>
+      <c r="B203" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="C203" s="2" t="s">
+        <v>144</v>
       </c>
       <c r="D203" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F203" s="1"/>
       <c r="G203" s="1"/>
       <c r="H203" s="1"/>
       <c r="I203" s="3" t="s">
-        <v>439</v>
+        <v>148</v>
       </c>
       <c r="J203" s="3" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="204" spans="1:10" x14ac:dyDescent="0.2">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="204" spans="1:10" ht="32" x14ac:dyDescent="0.2">
       <c r="A204" s="1" t="s">
-        <v>443</v>
+        <v>45</v>
+      </c>
+      <c r="B204" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="C204" s="2" t="s">
+        <v>144</v>
       </c>
       <c r="D204" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F204" s="1"/>
       <c r="G204" s="1"/>
       <c r="H204" s="1"/>
       <c r="I204" s="3" t="s">
-        <v>439</v>
-      </c>
-      <c r="J204" s="3" t="s">
-        <v>444</v>
+        <v>149</v>
+      </c>
+      <c r="J204" s="4" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="205" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A205" s="1" t="s">
-        <v>376</v>
+        <v>45</v>
+      </c>
+      <c r="C205" s="1" t="s">
+        <v>46</v>
       </c>
       <c r="D205" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F205" s="1"/>
       <c r="G205" s="1"/>
       <c r="H205" s="1"/>
       <c r="I205" s="3" t="s">
-        <v>258</v>
+        <v>49</v>
       </c>
       <c r="J205" s="3" t="s">
-        <v>377</v>
+        <v>48</v>
       </c>
     </row>
     <row r="206" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A206" s="1" t="s">
-        <v>376</v>
+        <v>369</v>
       </c>
       <c r="D206" s="1">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="F206" s="1"/>
       <c r="G206" s="1"/>
       <c r="H206" s="1"/>
       <c r="I206" s="3" t="s">
-        <v>256</v>
+        <v>374</v>
       </c>
       <c r="J206" s="3" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="207" spans="1:10" ht="32" x14ac:dyDescent="0.2">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="207" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A207" s="1" t="s">
-        <v>277</v>
-      </c>
-      <c r="B207" s="1" t="s">
-        <v>278</v>
-      </c>
-      <c r="C207" s="2" t="s">
-        <v>279</v>
+        <v>380</v>
       </c>
       <c r="D207" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F207" s="1"/>
       <c r="G207" s="1"/>
       <c r="H207" s="1"/>
       <c r="I207" s="3" t="s">
-        <v>280</v>
+        <v>374</v>
       </c>
       <c r="J207" s="3" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="208" spans="1:10" ht="32" x14ac:dyDescent="0.2">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="208" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A208" s="1" t="s">
-        <v>277</v>
-      </c>
-      <c r="B208" s="1" t="s">
-        <v>278</v>
-      </c>
-      <c r="C208" s="2" t="s">
-        <v>279</v>
+        <v>45</v>
+      </c>
+      <c r="C208" s="1" t="s">
+        <v>46</v>
       </c>
       <c r="D208" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F208" s="1"/>
       <c r="G208" s="1"/>
       <c r="H208" s="1"/>
       <c r="I208" s="3" t="s">
-        <v>282</v>
+        <v>47</v>
       </c>
       <c r="J208" s="3" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="209" spans="1:11" ht="32" x14ac:dyDescent="0.2">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="209" spans="1:10" ht="32" x14ac:dyDescent="0.2">
       <c r="A209" s="1" t="s">
-        <v>277</v>
+        <v>182</v>
       </c>
       <c r="B209" s="1" t="s">
-        <v>278</v>
+        <v>187</v>
       </c>
       <c r="C209" s="2" t="s">
-        <v>279</v>
+        <v>188</v>
       </c>
       <c r="D209" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F209" s="1"/>
       <c r="G209" s="1"/>
       <c r="H209" s="1"/>
       <c r="I209" s="3" t="s">
-        <v>283</v>
+        <v>47</v>
       </c>
       <c r="J209" s="3" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="210" spans="1:11" ht="32" x14ac:dyDescent="0.2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="210" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A210" s="1" t="s">
-        <v>277</v>
-      </c>
-      <c r="B210" s="1" t="s">
-        <v>278</v>
-      </c>
-      <c r="C210" s="2" t="s">
-        <v>279</v>
+        <v>369</v>
       </c>
       <c r="D210" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F210" s="1"/>
       <c r="G210" s="1"/>
       <c r="H210" s="1"/>
       <c r="I210" s="3" t="s">
-        <v>284</v>
+        <v>373</v>
       </c>
       <c r="J210" s="3" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="211" spans="1:11" ht="32" x14ac:dyDescent="0.2">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="211" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A211" s="1" t="s">
-        <v>277</v>
-      </c>
-      <c r="B211" s="1" t="s">
-        <v>278</v>
-      </c>
-      <c r="C211" s="2" t="s">
-        <v>279</v>
+        <v>380</v>
       </c>
       <c r="D211" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F211" s="1"/>
       <c r="G211" s="1"/>
       <c r="H211" s="1"/>
       <c r="I211" s="3" t="s">
-        <v>285</v>
+        <v>373</v>
       </c>
       <c r="J211" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="212" spans="1:11" ht="192" x14ac:dyDescent="0.2">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="212" spans="1:10" ht="32" x14ac:dyDescent="0.2">
       <c r="A212" s="1" t="s">
-        <v>366</v>
+        <v>45</v>
+      </c>
+      <c r="B212" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C212" s="2" t="s">
+        <v>64</v>
       </c>
       <c r="D212" s="1">
-        <v>1</v>
-      </c>
-      <c r="E212" s="1" t="s">
-        <v>500</v>
-      </c>
-      <c r="F212" s="2" t="s">
-        <v>532</v>
-      </c>
-      <c r="H212" s="5" t="s">
-        <v>533</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="F212" s="1"/>
+      <c r="G212" s="1"/>
+      <c r="H212" s="1"/>
       <c r="I212" s="3" t="s">
-        <v>25</v>
+        <v>66</v>
       </c>
       <c r="J212" s="3" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="213" spans="1:11" ht="48" x14ac:dyDescent="0.2">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="213" spans="1:10" ht="32" x14ac:dyDescent="0.2">
       <c r="A213" s="1" t="s">
-        <v>182</v>
+        <v>332</v>
       </c>
       <c r="B213" s="1" t="s">
-        <v>183</v>
+        <v>354</v>
       </c>
       <c r="C213" s="2" t="s">
-        <v>184</v>
+        <v>355</v>
       </c>
       <c r="D213" s="1">
-        <v>1</v>
-      </c>
-      <c r="E213" s="1" t="s">
-        <v>491</v>
-      </c>
-      <c r="F213" s="2" t="s">
-        <v>492</v>
-      </c>
-      <c r="G213" s="2" t="s">
-        <v>493</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="F213" s="1"/>
+      <c r="G213" s="1"/>
+      <c r="H213" s="1"/>
       <c r="I213" s="3" t="s">
-        <v>185</v>
-      </c>
-      <c r="J213" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="214" spans="1:11" ht="32" x14ac:dyDescent="0.2">
+        <v>359</v>
+      </c>
+      <c r="J213" s="3" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="214" spans="1:10" ht="32" x14ac:dyDescent="0.2">
       <c r="A214" s="1" t="s">
-        <v>182</v>
+        <v>332</v>
       </c>
       <c r="B214" s="1" t="s">
-        <v>183</v>
+        <v>354</v>
       </c>
       <c r="C214" s="2" t="s">
-        <v>184</v>
+        <v>355</v>
       </c>
       <c r="D214" s="1">
         <v>2</v>
       </c>
-      <c r="E214" s="1" t="s">
-        <v>463</v>
-      </c>
-      <c r="F214" s="2" t="s">
-        <v>471</v>
-      </c>
+      <c r="F214" s="1"/>
+      <c r="G214" s="1"/>
+      <c r="H214" s="1"/>
       <c r="I214" s="3" t="s">
-        <v>61</v>
+        <v>357</v>
       </c>
       <c r="J214" s="3" t="s">
-        <v>186</v>
-      </c>
-      <c r="K214" s="3" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="215" spans="1:11" ht="32" x14ac:dyDescent="0.2">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="215" spans="1:10" ht="32" x14ac:dyDescent="0.2">
       <c r="A215" s="1" t="s">
-        <v>182</v>
+        <v>332</v>
       </c>
       <c r="B215" s="1" t="s">
-        <v>190</v>
+        <v>354</v>
       </c>
       <c r="C215" s="2" t="s">
-        <v>191</v>
+        <v>355</v>
       </c>
       <c r="D215" s="1">
         <v>1</v>
       </c>
-      <c r="E215" s="1" t="s">
-        <v>491</v>
-      </c>
-      <c r="F215" s="2" t="s">
-        <v>495</v>
-      </c>
+      <c r="F215" s="1"/>
+      <c r="G215" s="1"/>
+      <c r="H215" s="1"/>
       <c r="I215" s="3" t="s">
-        <v>192</v>
+        <v>356</v>
       </c>
       <c r="J215" s="3" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="216" spans="1:11" ht="32" x14ac:dyDescent="0.2">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="216" spans="1:10" ht="32" x14ac:dyDescent="0.2">
       <c r="A216" s="1" t="s">
-        <v>182</v>
+        <v>332</v>
       </c>
       <c r="B216" s="1" t="s">
-        <v>190</v>
+        <v>354</v>
       </c>
       <c r="C216" s="2" t="s">
-        <v>191</v>
+        <v>355</v>
       </c>
       <c r="D216" s="1">
-        <v>2</v>
-      </c>
-      <c r="E216" s="1" t="s">
-        <v>491</v>
-      </c>
-      <c r="F216" s="2" t="s">
-        <v>494</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="F216" s="1"/>
+      <c r="G216" s="1"/>
+      <c r="H216" s="1"/>
       <c r="I216" s="3" t="s">
-        <v>193</v>
-      </c>
-      <c r="J216" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="217" spans="1:11" ht="112" x14ac:dyDescent="0.2">
+        <v>358</v>
+      </c>
+      <c r="J216" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="217" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A217" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="B217" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="C217" s="2" t="s">
-        <v>195</v>
+        <v>45</v>
+      </c>
+      <c r="C217" s="1" t="s">
+        <v>46</v>
       </c>
       <c r="D217" s="1">
-        <v>1</v>
-      </c>
-      <c r="E217" s="1" t="s">
-        <v>491</v>
-      </c>
-      <c r="F217" s="2" t="s">
-        <v>534</v>
-      </c>
-      <c r="H217" s="5" t="s">
-        <v>536</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="F217" s="1"/>
+      <c r="G217" s="1"/>
+      <c r="H217" s="1"/>
       <c r="I217" s="3" t="s">
-        <v>25</v>
+        <v>51</v>
       </c>
       <c r="J217" s="3" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="218" spans="1:11" ht="32" x14ac:dyDescent="0.2">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="218" spans="1:10" ht="32" x14ac:dyDescent="0.2">
       <c r="A218" s="1" t="s">
         <v>182</v>
       </c>
       <c r="B218" s="1" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="C218" s="2" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
       <c r="D218" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F218" s="1"/>
       <c r="G218" s="1"/>
       <c r="H218" s="1"/>
       <c r="I218" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="J218" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="219" spans="1:11" ht="32" x14ac:dyDescent="0.2">
+        <v>189</v>
+      </c>
+      <c r="J218" s="3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="219" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A219" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="B219" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="C219" s="2" t="s">
-        <v>195</v>
+        <v>45</v>
+      </c>
+      <c r="C219" s="1" t="s">
+        <v>46</v>
       </c>
       <c r="D219" s="1">
         <v>3</v>
@@ -7290,97 +7562,84 @@
       <c r="G219" s="1"/>
       <c r="H219" s="1"/>
       <c r="I219" s="3" t="s">
-        <v>198</v>
+        <v>50</v>
       </c>
       <c r="J219" s="3" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="220" spans="1:11" ht="96" x14ac:dyDescent="0.2">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="220" spans="1:10" ht="32" x14ac:dyDescent="0.2">
       <c r="A220" s="1" t="s">
-        <v>182</v>
+        <v>212</v>
       </c>
       <c r="B220" s="1" t="s">
-        <v>194</v>
+        <v>224</v>
       </c>
       <c r="C220" s="2" t="s">
-        <v>195</v>
+        <v>225</v>
       </c>
       <c r="D220" s="1">
-        <v>4</v>
-      </c>
-      <c r="E220" s="1" t="s">
-        <v>491</v>
-      </c>
-      <c r="F220" s="2" t="s">
-        <v>535</v>
-      </c>
-      <c r="H220" s="5"/>
+        <v>1</v>
+      </c>
+      <c r="F220" s="1"/>
+      <c r="G220" s="1"/>
+      <c r="H220" s="1"/>
       <c r="I220" s="3" t="s">
-        <v>200</v>
+        <v>216</v>
       </c>
       <c r="J220" s="3" t="s">
-        <v>201</v>
-      </c>
-      <c r="K220" s="3" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="221" spans="1:11" ht="32" x14ac:dyDescent="0.2">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="221" spans="1:10" ht="32" x14ac:dyDescent="0.2">
       <c r="A221" s="1" t="s">
-        <v>182</v>
+        <v>212</v>
       </c>
       <c r="B221" s="1" t="s">
-        <v>187</v>
+        <v>220</v>
       </c>
       <c r="C221" s="2" t="s">
-        <v>188</v>
+        <v>221</v>
       </c>
       <c r="D221" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F221" s="1"/>
       <c r="G221" s="1"/>
       <c r="H221" s="1"/>
       <c r="I221" s="3" t="s">
-        <v>189</v>
+        <v>216</v>
       </c>
       <c r="J221" s="3" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="222" spans="1:11" ht="32" x14ac:dyDescent="0.2">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="222" spans="1:10" ht="32" x14ac:dyDescent="0.2">
       <c r="A222" s="1" t="s">
-        <v>182</v>
+        <v>212</v>
       </c>
       <c r="B222" s="1" t="s">
-        <v>187</v>
+        <v>213</v>
       </c>
       <c r="C222" s="2" t="s">
-        <v>188</v>
+        <v>214</v>
       </c>
       <c r="D222" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F222" s="1"/>
       <c r="G222" s="1"/>
       <c r="H222" s="1"/>
       <c r="I222" s="3" t="s">
-        <v>47</v>
+        <v>216</v>
       </c>
       <c r="J222" s="3" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="223" spans="1:11" ht="32" x14ac:dyDescent="0.2">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="223" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A223" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="B223" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="C223" s="2" t="s">
-        <v>235</v>
+        <v>438</v>
       </c>
       <c r="D223" s="1">
         <v>1</v>
@@ -7389,44 +7648,32 @@
       <c r="G223" s="1"/>
       <c r="H223" s="1"/>
       <c r="I223" s="3" t="s">
-        <v>198</v>
+        <v>439</v>
       </c>
       <c r="J223" s="3" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="224" spans="1:11" ht="32" x14ac:dyDescent="0.2">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="224" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A224" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="B224" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="C224" s="2" t="s">
-        <v>235</v>
+        <v>441</v>
       </c>
       <c r="D224" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F224" s="1"/>
       <c r="G224" s="1"/>
       <c r="H224" s="1"/>
       <c r="I224" s="3" t="s">
-        <v>237</v>
-      </c>
-      <c r="J224" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="225" spans="1:10" ht="32" x14ac:dyDescent="0.2">
+        <v>439</v>
+      </c>
+      <c r="J224" s="3" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="225" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A225" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="B225" s="1" t="s">
-        <v>250</v>
-      </c>
-      <c r="C225" s="2" t="s">
-        <v>251</v>
+        <v>443</v>
       </c>
       <c r="D225" s="1">
         <v>1</v>
@@ -7435,24 +7682,24 @@
       <c r="G225" s="1"/>
       <c r="H225" s="1"/>
       <c r="I225" s="3" t="s">
-        <v>198</v>
+        <v>439</v>
       </c>
       <c r="J225" s="3" t="s">
-        <v>252</v>
+        <v>444</v>
       </c>
     </row>
     <row r="226" spans="1:10" ht="32" x14ac:dyDescent="0.2">
       <c r="A226" s="1" t="s">
-        <v>231</v>
+        <v>182</v>
       </c>
       <c r="B226" s="1" t="s">
-        <v>253</v>
+        <v>194</v>
       </c>
       <c r="C226" s="2" t="s">
-        <v>254</v>
+        <v>195</v>
       </c>
       <c r="D226" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F226" s="1"/>
       <c r="G226" s="1"/>
@@ -7461,7 +7708,7 @@
         <v>198</v>
       </c>
       <c r="J226" s="3" t="s">
-        <v>255</v>
+        <v>199</v>
       </c>
     </row>
     <row r="227" spans="1:10" ht="32" x14ac:dyDescent="0.2">
@@ -7469,22 +7716,22 @@
         <v>231</v>
       </c>
       <c r="B227" s="1" t="s">
-        <v>253</v>
+        <v>234</v>
       </c>
       <c r="C227" s="2" t="s">
-        <v>254</v>
+        <v>235</v>
       </c>
       <c r="D227" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F227" s="1"/>
       <c r="G227" s="1"/>
       <c r="H227" s="1"/>
       <c r="I227" s="3" t="s">
-        <v>256</v>
+        <v>198</v>
       </c>
       <c r="J227" s="3" t="s">
-        <v>257</v>
+        <v>236</v>
       </c>
     </row>
     <row r="228" spans="1:10" ht="32" x14ac:dyDescent="0.2">
@@ -7492,22 +7739,22 @@
         <v>231</v>
       </c>
       <c r="B228" s="1" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="C228" s="2" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="D228" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F228" s="1"/>
       <c r="G228" s="1"/>
       <c r="H228" s="1"/>
       <c r="I228" s="3" t="s">
-        <v>258</v>
+        <v>198</v>
       </c>
       <c r="J228" s="3" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
     </row>
     <row r="229" spans="1:10" ht="32" x14ac:dyDescent="0.2">
@@ -7515,10 +7762,10 @@
         <v>231</v>
       </c>
       <c r="B229" s="1" t="s">
-        <v>238</v>
+        <v>253</v>
       </c>
       <c r="C229" s="2" t="s">
-        <v>239</v>
+        <v>254</v>
       </c>
       <c r="D229" s="1">
         <v>1</v>
@@ -7527,10 +7774,10 @@
       <c r="G229" s="1"/>
       <c r="H229" s="1"/>
       <c r="I229" s="3" t="s">
-        <v>240</v>
+        <v>198</v>
       </c>
       <c r="J229" s="3" t="s">
-        <v>58</v>
+        <v>255</v>
       </c>
     </row>
     <row r="230" spans="1:10" ht="32" x14ac:dyDescent="0.2">
@@ -7538,10 +7785,10 @@
         <v>231</v>
       </c>
       <c r="B230" s="1" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="C230" s="2" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="D230" s="1">
         <v>2</v>
@@ -7550,53 +7797,53 @@
       <c r="G230" s="1"/>
       <c r="H230" s="1"/>
       <c r="I230" s="3" t="s">
-        <v>241</v>
-      </c>
-      <c r="J230" s="3" t="s">
-        <v>58</v>
+        <v>237</v>
+      </c>
+      <c r="J230" s="4" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="231" spans="1:10" ht="32" x14ac:dyDescent="0.2">
       <c r="A231" s="1" t="s">
-        <v>231</v>
+        <v>332</v>
       </c>
       <c r="B231" s="1" t="s">
-        <v>238</v>
+        <v>336</v>
       </c>
       <c r="C231" s="2" t="s">
-        <v>239</v>
+        <v>337</v>
       </c>
       <c r="D231" s="1">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="F231" s="1"/>
       <c r="G231" s="1"/>
       <c r="H231" s="1"/>
       <c r="I231" s="3" t="s">
-        <v>242</v>
+        <v>346</v>
       </c>
       <c r="J231" s="3" t="s">
-        <v>58</v>
+        <v>18</v>
       </c>
     </row>
     <row r="232" spans="1:10" ht="32" x14ac:dyDescent="0.2">
       <c r="A232" s="1" t="s">
-        <v>231</v>
+        <v>332</v>
       </c>
       <c r="B232" s="1" t="s">
-        <v>238</v>
+        <v>336</v>
       </c>
       <c r="C232" s="2" t="s">
-        <v>239</v>
+        <v>337</v>
       </c>
       <c r="D232" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F232" s="1"/>
       <c r="G232" s="1"/>
       <c r="H232" s="1"/>
       <c r="I232" s="3" t="s">
-        <v>243</v>
+        <v>341</v>
       </c>
       <c r="J232" s="3" t="s">
         <v>58</v>
@@ -7604,22 +7851,22 @@
     </row>
     <row r="233" spans="1:10" ht="32" x14ac:dyDescent="0.2">
       <c r="A233" s="1" t="s">
-        <v>231</v>
+        <v>332</v>
       </c>
       <c r="B233" s="1" t="s">
-        <v>238</v>
+        <v>336</v>
       </c>
       <c r="C233" s="2" t="s">
-        <v>239</v>
+        <v>337</v>
       </c>
       <c r="D233" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F233" s="1"/>
       <c r="G233" s="1"/>
       <c r="H233" s="1"/>
       <c r="I233" s="3" t="s">
-        <v>244</v>
+        <v>342</v>
       </c>
       <c r="J233" s="3" t="s">
         <v>58</v>
@@ -7627,13 +7874,13 @@
     </row>
     <row r="234" spans="1:10" ht="32" x14ac:dyDescent="0.2">
       <c r="A234" s="1" t="s">
-        <v>231</v>
+        <v>332</v>
       </c>
       <c r="B234" s="1" t="s">
-        <v>238</v>
+        <v>336</v>
       </c>
       <c r="C234" s="2" t="s">
-        <v>239</v>
+        <v>337</v>
       </c>
       <c r="D234" s="1">
         <v>6</v>
@@ -7642,67 +7889,67 @@
       <c r="G234" s="1"/>
       <c r="H234" s="1"/>
       <c r="I234" s="3" t="s">
-        <v>245</v>
-      </c>
-      <c r="J234" s="4" t="s">
-        <v>13</v>
+        <v>344</v>
+      </c>
+      <c r="J234" s="3" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="235" spans="1:10" ht="32" x14ac:dyDescent="0.2">
       <c r="A235" s="1" t="s">
-        <v>231</v>
+        <v>332</v>
       </c>
       <c r="B235" s="1" t="s">
-        <v>238</v>
+        <v>336</v>
       </c>
       <c r="C235" s="2" t="s">
-        <v>239</v>
+        <v>337</v>
       </c>
       <c r="D235" s="1">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F235" s="1"/>
       <c r="G235" s="1"/>
       <c r="H235" s="1"/>
       <c r="I235" s="3" t="s">
-        <v>246</v>
+        <v>343</v>
       </c>
       <c r="J235" s="3" t="s">
-        <v>18</v>
+        <v>58</v>
       </c>
     </row>
     <row r="236" spans="1:10" ht="32" x14ac:dyDescent="0.2">
       <c r="A236" s="1" t="s">
-        <v>231</v>
+        <v>332</v>
       </c>
       <c r="B236" s="1" t="s">
-        <v>238</v>
+        <v>336</v>
       </c>
       <c r="C236" s="2" t="s">
-        <v>239</v>
+        <v>337</v>
       </c>
       <c r="D236" s="1">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F236" s="1"/>
       <c r="G236" s="1"/>
       <c r="H236" s="1"/>
       <c r="I236" s="3" t="s">
-        <v>247</v>
+        <v>345</v>
       </c>
       <c r="J236" s="3" t="s">
-        <v>18</v>
+        <v>58</v>
       </c>
     </row>
     <row r="237" spans="1:10" ht="32" x14ac:dyDescent="0.2">
       <c r="A237" s="1" t="s">
-        <v>231</v>
+        <v>332</v>
       </c>
       <c r="B237" s="1" t="s">
-        <v>238</v>
+        <v>336</v>
       </c>
       <c r="C237" s="2" t="s">
-        <v>239</v>
+        <v>337</v>
       </c>
       <c r="D237" s="1">
         <v>9</v>
@@ -7711,286 +7958,265 @@
       <c r="G237" s="1"/>
       <c r="H237" s="1"/>
       <c r="I237" s="3" t="s">
-        <v>248</v>
-      </c>
-      <c r="J237" s="3" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="238" spans="1:10" ht="32" x14ac:dyDescent="0.2">
+        <v>347</v>
+      </c>
+      <c r="J237" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="238" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A238" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="B238" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="C238" s="2" t="s">
-        <v>239</v>
+        <v>376</v>
       </c>
       <c r="D238" s="1">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="F238" s="1"/>
       <c r="G238" s="1"/>
       <c r="H238" s="1"/>
       <c r="I238" s="3" t="s">
-        <v>249</v>
+        <v>258</v>
       </c>
       <c r="J238" s="3" t="s">
-        <v>18</v>
+        <v>377</v>
       </c>
     </row>
     <row r="239" spans="1:10" ht="32" x14ac:dyDescent="0.2">
       <c r="A239" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="C239" s="1" t="s">
-        <v>232</v>
+      <c r="B239" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="C239" s="2" t="s">
+        <v>254</v>
       </c>
       <c r="D239" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F239" s="1"/>
       <c r="G239" s="1"/>
       <c r="H239" s="1"/>
       <c r="I239" s="3" t="s">
-        <v>233</v>
-      </c>
-      <c r="J239" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="240" spans="1:10" ht="32" x14ac:dyDescent="0.2">
+        <v>258</v>
+      </c>
+      <c r="J239" s="3" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="240" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A240" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="B240" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="C240" s="2" t="s">
-        <v>204</v>
+        <v>259</v>
+      </c>
+      <c r="C240" s="1" t="s">
+        <v>260</v>
       </c>
       <c r="D240" s="1">
         <v>1</v>
       </c>
-      <c r="E240" s="1" t="s">
-        <v>496</v>
-      </c>
-      <c r="F240" s="2" t="s">
-        <v>497</v>
-      </c>
+      <c r="F240" s="1"/>
+      <c r="G240" s="1"/>
+      <c r="H240" s="1"/>
       <c r="I240" s="3" t="s">
-        <v>205</v>
-      </c>
-      <c r="J240" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="241" spans="1:10" ht="32" x14ac:dyDescent="0.2">
+        <v>261</v>
+      </c>
+      <c r="J240" s="3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="241" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A241" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="B241" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="C241" s="2" t="s">
-        <v>210</v>
+        <v>376</v>
       </c>
       <c r="D241" s="1">
-        <v>1</v>
-      </c>
-      <c r="E241" s="1" t="s">
-        <v>496</v>
-      </c>
-      <c r="F241" s="2" t="s">
-        <v>494</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="F241" s="1"/>
+      <c r="G241" s="1"/>
+      <c r="H241" s="1"/>
       <c r="I241" s="3" t="s">
-        <v>211</v>
+        <v>256</v>
       </c>
       <c r="J241" s="3" t="s">
-        <v>18</v>
+        <v>377</v>
       </c>
     </row>
     <row r="242" spans="1:10" ht="32" x14ac:dyDescent="0.2">
       <c r="A242" s="1" t="s">
-        <v>202</v>
+        <v>231</v>
       </c>
       <c r="B242" s="1" t="s">
-        <v>206</v>
+        <v>253</v>
       </c>
       <c r="C242" s="2" t="s">
-        <v>207</v>
+        <v>254</v>
       </c>
       <c r="D242" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F242" s="1"/>
       <c r="G242" s="1"/>
       <c r="H242" s="1"/>
       <c r="I242" s="3" t="s">
-        <v>208</v>
+        <v>256</v>
       </c>
       <c r="J242" s="3" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="243" spans="1:10" ht="32" x14ac:dyDescent="0.2">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="243" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A243" s="1" t="s">
-        <v>296</v>
-      </c>
-      <c r="B243" s="1" t="s">
-        <v>297</v>
-      </c>
-      <c r="C243" s="2" t="s">
-        <v>298</v>
+        <v>259</v>
+      </c>
+      <c r="C243" s="1" t="s">
+        <v>260</v>
       </c>
       <c r="D243" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F243" s="1"/>
       <c r="G243" s="1"/>
       <c r="H243" s="1"/>
       <c r="I243" s="3" t="s">
-        <v>299</v>
-      </c>
-      <c r="J243" s="4" t="s">
-        <v>10</v>
+        <v>262</v>
+      </c>
+      <c r="J243" s="3" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="244" spans="1:10" ht="32" x14ac:dyDescent="0.2">
       <c r="A244" s="1" t="s">
-        <v>296</v>
+        <v>231</v>
       </c>
       <c r="B244" s="1" t="s">
-        <v>297</v>
+        <v>238</v>
       </c>
       <c r="C244" s="2" t="s">
-        <v>298</v>
+        <v>239</v>
       </c>
       <c r="D244" s="1">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="F244" s="1"/>
       <c r="G244" s="1"/>
       <c r="H244" s="1"/>
       <c r="I244" s="3" t="s">
-        <v>300</v>
+        <v>245</v>
       </c>
       <c r="J244" s="4" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="245" spans="1:10" ht="32" x14ac:dyDescent="0.2">
       <c r="A245" s="1" t="s">
-        <v>296</v>
+        <v>231</v>
       </c>
       <c r="B245" s="1" t="s">
-        <v>310</v>
+        <v>238</v>
       </c>
       <c r="C245" s="2" t="s">
-        <v>311</v>
+        <v>239</v>
       </c>
       <c r="D245" s="1">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="F245" s="1"/>
       <c r="G245" s="1"/>
       <c r="H245" s="1"/>
       <c r="I245" s="3" t="s">
-        <v>312</v>
-      </c>
-      <c r="J245" s="4" t="s">
-        <v>10</v>
+        <v>247</v>
+      </c>
+      <c r="J245" s="3" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="246" spans="1:10" ht="32" x14ac:dyDescent="0.2">
       <c r="A246" s="1" t="s">
-        <v>296</v>
+        <v>231</v>
       </c>
       <c r="B246" s="1" t="s">
-        <v>310</v>
+        <v>238</v>
       </c>
       <c r="C246" s="2" t="s">
-        <v>311</v>
+        <v>239</v>
       </c>
       <c r="D246" s="1">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F246" s="1"/>
       <c r="G246" s="1"/>
       <c r="H246" s="1"/>
       <c r="I246" s="3" t="s">
-        <v>313</v>
-      </c>
-      <c r="J246" s="4" t="s">
-        <v>10</v>
+        <v>244</v>
+      </c>
+      <c r="J246" s="3" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="247" spans="1:10" ht="32" x14ac:dyDescent="0.2">
       <c r="A247" s="1" t="s">
-        <v>296</v>
+        <v>231</v>
       </c>
       <c r="B247" s="1" t="s">
-        <v>301</v>
+        <v>238</v>
       </c>
       <c r="C247" s="2" t="s">
-        <v>302</v>
+        <v>239</v>
       </c>
       <c r="D247" s="1">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F247" s="1"/>
       <c r="G247" s="1"/>
       <c r="H247" s="1"/>
       <c r="I247" s="3" t="s">
-        <v>303</v>
+        <v>246</v>
       </c>
       <c r="J247" s="3" t="s">
-        <v>304</v>
+        <v>18</v>
       </c>
     </row>
     <row r="248" spans="1:10" ht="32" x14ac:dyDescent="0.2">
       <c r="A248" s="1" t="s">
-        <v>296</v>
+        <v>231</v>
       </c>
       <c r="B248" s="1" t="s">
-        <v>301</v>
+        <v>238</v>
       </c>
       <c r="C248" s="2" t="s">
-        <v>302</v>
+        <v>239</v>
       </c>
       <c r="D248" s="1">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="F248" s="1"/>
       <c r="G248" s="1"/>
       <c r="H248" s="1"/>
       <c r="I248" s="3" t="s">
-        <v>305</v>
+        <v>248</v>
       </c>
       <c r="J248" s="3" t="s">
-        <v>18</v>
+        <v>75</v>
       </c>
     </row>
     <row r="249" spans="1:10" ht="32" x14ac:dyDescent="0.2">
       <c r="A249" s="1" t="s">
-        <v>296</v>
+        <v>231</v>
       </c>
       <c r="B249" s="1" t="s">
-        <v>301</v>
+        <v>238</v>
       </c>
       <c r="C249" s="2" t="s">
-        <v>302</v>
+        <v>239</v>
       </c>
       <c r="D249" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F249" s="1"/>
       <c r="G249" s="1"/>
       <c r="H249" s="1"/>
       <c r="I249" s="3" t="s">
-        <v>306</v>
+        <v>243</v>
       </c>
       <c r="J249" s="3" t="s">
         <v>58</v>
@@ -7998,22 +8224,22 @@
     </row>
     <row r="250" spans="1:10" ht="32" x14ac:dyDescent="0.2">
       <c r="A250" s="1" t="s">
-        <v>296</v>
+        <v>231</v>
       </c>
       <c r="B250" s="1" t="s">
-        <v>301</v>
+        <v>238</v>
       </c>
       <c r="C250" s="2" t="s">
-        <v>302</v>
+        <v>239</v>
       </c>
       <c r="D250" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F250" s="1"/>
       <c r="G250" s="1"/>
       <c r="H250" s="1"/>
       <c r="I250" s="3" t="s">
-        <v>307</v>
+        <v>242</v>
       </c>
       <c r="J250" s="3" t="s">
         <v>58</v>
@@ -8021,73 +8247,77 @@
     </row>
     <row r="251" spans="1:10" ht="32" x14ac:dyDescent="0.2">
       <c r="A251" s="1" t="s">
-        <v>296</v>
+        <v>231</v>
       </c>
       <c r="B251" s="1" t="s">
-        <v>301</v>
+        <v>238</v>
       </c>
       <c r="C251" s="2" t="s">
-        <v>302</v>
+        <v>239</v>
       </c>
       <c r="D251" s="1">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F251" s="1"/>
       <c r="G251" s="1"/>
       <c r="H251" s="1"/>
       <c r="I251" s="3" t="s">
-        <v>308</v>
+        <v>240</v>
       </c>
       <c r="J251" s="3" t="s">
-        <v>304</v>
+        <v>58</v>
       </c>
     </row>
     <row r="252" spans="1:10" ht="32" x14ac:dyDescent="0.2">
       <c r="A252" s="1" t="s">
-        <v>296</v>
+        <v>231</v>
       </c>
       <c r="B252" s="1" t="s">
-        <v>301</v>
+        <v>238</v>
       </c>
       <c r="C252" s="2" t="s">
-        <v>302</v>
+        <v>239</v>
       </c>
       <c r="D252" s="1">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F252" s="1"/>
       <c r="G252" s="1"/>
       <c r="H252" s="1"/>
       <c r="I252" s="3" t="s">
-        <v>309</v>
+        <v>241</v>
       </c>
       <c r="J252" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="253" spans="1:10" x14ac:dyDescent="0.2">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="253" spans="1:10" ht="32" x14ac:dyDescent="0.2">
       <c r="A253" s="1" t="s">
-        <v>433</v>
+        <v>231</v>
+      </c>
+      <c r="B253" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="C253" s="2" t="s">
+        <v>239</v>
       </c>
       <c r="D253" s="1">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F253" s="1"/>
       <c r="G253" s="1"/>
       <c r="H253" s="1"/>
       <c r="I253" s="3" t="s">
-        <v>434</v>
+        <v>249</v>
       </c>
       <c r="J253" s="3" t="s">
-        <v>435</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:K253">
     <sortState ref="A2:K253">
-      <sortCondition ref="A2:A253"/>
-      <sortCondition ref="B2:B253"/>
-      <sortCondition ref="D2:D253"/>
+      <sortCondition ref="I1:I253"/>
     </sortState>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/dev/tools/legacy_permissions/data/usecases.xlsx
+++ b/dev/tools/legacy_permissions/data/usecases.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="19700" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14120" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="usecases" sheetId="1" r:id="rId1"/>
@@ -2179,7 +2179,18 @@
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -2456,7 +2467,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E10" sqref="E10"/>
+      <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
